--- a/Transavia/Production/Results/Results_daily_FNC.xlsx
+++ b/Transavia/Production/Results/Results_daily_FNC.xlsx
@@ -29,6 +29,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -58,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +375,1326 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.0004160676035098732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.0004160676035098732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.0004160676035098732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.0004160676035098732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.0004160676035098732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.0004160676035098732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.0004160676035098732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.0004023404617328197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.000712890294380486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.01453692466020584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.04769204929471016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.07377072423696518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.07884056866168976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.06557060033082962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.05557345971465111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.03242192789912224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.0157692302018404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.0004559949156828225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.0004241754941176623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.0004354726115707308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.0004224496951792389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.0004224496951792389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.0004224496951792389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.0004224496951792389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.0004378772573545575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.0004397927841637284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0.0004647812165785581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0.0004649153270293027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.0004649153270293027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0.0004649153270293027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>0.0004689596535172313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.0004535864281933755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0.002367942128330469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0.04797191172838211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0.1052953079342842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0.1326014548540115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>0.1257526576519012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>0.1085219383239746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>0.060834851115942</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>0.03499194234609604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>0.01678379997611046</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>0.0004563639522530138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0.0004250460478942841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>0.0004363431653473526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>0.0004215791414026171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>0.00042152070091106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>0.0004234361986164004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>0.0004215791414026171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.0004374181153252721</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0.0004434177826624364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0.0004411000991240144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>0.000312659511109814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.0004161387332715094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0.0004161387332715094</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>0.0004161387332715094</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>0.0004024115914944559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0.0007499659550376236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0.01119095738977194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0.03311823680996895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>0.04774041101336479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>0.05473417043685913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>0.04820645228028297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>0.03411684930324554</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>0.02422992698848248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>0.008142567239701748</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>0.0004142275429330766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>0.0004142275429330766</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>0.0004257695400156081</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>0.0004118760116398335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>0.0004116311902180314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>0.0004116311902180314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>0.0004116311902180314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0.0004160676035098732</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0.0004160676035098732</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>0.0004175023059360683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>0.0004175023059360683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0.0004175023059360683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0.0004150943714194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>0.0004150943714194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>0.0004013672296423465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>0.0007139435620047152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>0.009953991509974003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>0.02911178208887577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>0.0456114374101162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>0.04987083747982979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>0.04811860620975494</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>0.03748071193695068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>0.03019151836633682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>0.0104402219876647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B91">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>0.0004313377721700817</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B92">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>0.0004313377721700817</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>0.0004934167955070734</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>0.0004757096467074007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B95">
+        <v>21</v>
+      </c>
+      <c r="C95">
+        <v>0.0005602668388746679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B96">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>0.0005602668388746679</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B97">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>0.000565948081202805</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0.0004397587035782635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>0.0004397587035782635</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>0.0004397587035782635</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>0.0004397587035782635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0.0004397587035782635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>0.0004438787000253797</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>0.0004941371153108776</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>0.0006011450896039605</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>0.001541363308206201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>0.04252557829022408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>0.07936006784439087</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>0.1122782155871391</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>0.1162996143102646</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="C111">
+        <v>0.109050065279007</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>0.07299329340457916</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>0.04119419679045677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>0.02069580554962158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>0.0005224802880547941</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>0.0004475681635085493</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B117">
+        <v>19</v>
+      </c>
+      <c r="C117">
+        <v>0.0004588653100654483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>0.0004418992321006954</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B119">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>0.0004418992321006954</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B120">
+        <v>22</v>
+      </c>
+      <c r="C120">
+        <v>0.0004418992321006954</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B121">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>0.0004420509794726968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transavia/Production/Results/Results_daily_FNC.xlsx
+++ b/Transavia/Production/Results/Results_daily_FNC.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,1322 +377,3709 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.0004160676035098732</v>
+        <v>0.01536723133176565</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>0.0004160676035098732</v>
+        <v>0.004861688707023859</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.0004160676035098732</v>
+        <v>0.0004548501747194678</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.0004160676035098732</v>
+        <v>0.0004394205170683563</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.0004160676035098732</v>
+        <v>0.0004562403773888946</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.0004160676035098732</v>
+        <v>0.0004385268548503518</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.0004160676035098732</v>
+        <v>0.0004385268548503518</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.0004023404617328197</v>
+        <v>0.0004385268548503518</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.000712890294380486</v>
+        <v>0.0004176910151727498</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01453692466020584</v>
+        <v>0.0004664785810746253</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.04769204929471016</v>
+        <v>0.0004664785810746253</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.07377072423696518</v>
+        <v>0.0004519789945334196</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.07884056866168976</v>
+        <v>0.0004485435783863068</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.06557060033082962</v>
+        <v>0.0005353747401386499</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0.05557345971465111</v>
+        <v>0.0005931176710873842</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.03242192789912224</v>
+        <v>0.007861783728003502</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0.0157692302018404</v>
+        <v>0.02564908377826214</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0.0004559949156828225</v>
+        <v>0.0359961986541748</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>0.0004241754941176623</v>
+        <v>0.04653127491474152</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0.0004354726115707308</v>
+        <v>0.05086313188076019</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>0.0004224496951792389</v>
+        <v>0.05532427877187729</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>0.0004224496951792389</v>
+        <v>0.06072518974542618</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0.0004224496951792389</v>
+        <v>0.05717086419463158</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0.0004224496951792389</v>
+        <v>0.03509983047842979</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>0.0004378772573545575</v>
+        <v>0.02552779018878937</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>0.0004397927841637284</v>
+        <v>0.007830577902495861</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>0.0004647812165785581</v>
+        <v>0.0004690714995376766</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>0.0004649153270293027</v>
+        <v>0.0004400778561830521</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>0.0004649153270293027</v>
+        <v>0.0004568977165035903</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>0.0004649153270293027</v>
+        <v>0.000456842768471688</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>0.0004689596535172313</v>
+        <v>0.000456842768471688</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>0.0004535864281933755</v>
+        <v>0.000456842768471688</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>0.002367942128330469</v>
+        <v>0.0004631412157323211</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.04797191172838211</v>
+        <v>0.0004759164294227958</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.1052953079342842</v>
+        <v>0.0004550805606413633</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>0.1326014548540115</v>
+        <v>0.0004843019123654813</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>0.1257526576519012</v>
+        <v>0.0004843019123654813</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>0.1085219383239746</v>
+        <v>0.0004843019123654813</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>0.060834851115942</v>
+        <v>0.0005492009804584086</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.03499194234609604</v>
+        <v>0.01137552130967379</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0.01678379997611046</v>
+        <v>0.0373786985874176</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0.0004563639522530138</v>
+        <v>0.05832456797361374</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>0.0004250460478942841</v>
+        <v>0.07483088225126266</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>0.0004363431653473526</v>
+        <v>0.0943232923746109</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>0.0004215791414026171</v>
+        <v>0.09905421733856201</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>0.00042152070091106</v>
+        <v>0.08639990538358688</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>0.0004234361986164004</v>
+        <v>0.08800901472568512</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>0.0004215791414026171</v>
+        <v>0.05694010108709335</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>0.0004374181153252721</v>
+        <v>0.03798653930425644</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>0.0004434177826624364</v>
+        <v>0.0183353628963232</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>0.0004411000991240144</v>
+        <v>0.0004142821417190135</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0.000312659511109814</v>
+        <v>0.0004213122592773288</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>0.0004161387332715094</v>
+        <v>0.000438346090959385</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>0.0004161387332715094</v>
+        <v>0.0004206325102131814</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>0.0004161387332715094</v>
+        <v>0.0004225479497108608</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>0.0004024115914944559</v>
+        <v>0.0004295037651900202</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>0.0007499659550376236</v>
+        <v>0.0004346675996202976</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.01119095738977194</v>
+        <v>0.0004581829125527292</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.03311823680996895</v>
+        <v>0.0004583905101753771</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>0.04774041101336479</v>
+        <v>0.0004654737131204456</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>0.05473417043685913</v>
+        <v>0.0004803058400284499</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0.04820645228028297</v>
+        <v>0.000476408313261345</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>0.03411684930324554</v>
+        <v>0.0008653850527480245</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>0.02422992698848248</v>
+        <v>0.03963937610387802</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>0.008142567239701748</v>
+        <v>0.0997760146856308</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>0.0004142275429330766</v>
+        <v>0.1629505902528763</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>0.0004142275429330766</v>
+        <v>0.1693043410778046</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>0.0004257695400156081</v>
+        <v>0.1275356858968735</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>0.0004118760116398335</v>
+        <v>0.1372346431016922</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>0.0004116311902180314</v>
+        <v>0.1287816613912582</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>0.0004116311902180314</v>
+        <v>0.1140500903129578</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>0.0004116311902180314</v>
+        <v>0.08531764149665833</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>0.0004160676035098732</v>
+        <v>0.04451722279191017</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>0.0004160676035098732</v>
+        <v>0.01748240739107132</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>0.0004175023059360683</v>
+        <v>0.0009016821277327836</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>0.0004175023059360683</v>
+        <v>0.0004345409979578108</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>0.0004175023059360683</v>
+        <v>0.000451360858278349</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>0.0004150943714194</v>
+        <v>0.0004336473357398063</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>0.0004150943714194</v>
+        <v>0.0004336473357398063</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C81">
-        <v>0.0004013672296423465</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>0.0007139435620047152</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.009953991509974003</v>
+        <v>0.0004126676358282566</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0.02911178208887577</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>0.0456114374101162</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>0.04987083747982979</v>
+        <v>0.0004328868526499718</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>0.04811860620975494</v>
+        <v>0.0004328868526499718</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>0.03748071193695068</v>
+        <v>0.000491393031552434</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>0.03019151836633682</v>
+        <v>0.01685526221990585</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>0.0104402219876647</v>
+        <v>0.04290797561407089</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>0.0004313377721700817</v>
+        <v>0.05763650685548782</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>0.0004313377721700817</v>
+        <v>0.06385919451713562</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0.0004934167955070734</v>
+        <v>0.08622176200151443</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B94">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>0.0004757096467074007</v>
+        <v>0.09734632074832916</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B95">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>0.0005602668388746679</v>
+        <v>0.09773741662502289</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>0.0005602668388746679</v>
+        <v>0.08003149181604385</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>0.000565948081202805</v>
+        <v>0.05665340274572372</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>0.0004397587035782635</v>
+        <v>0.03336742892861366</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>0.0004397587035782635</v>
+        <v>0.01477877143770456</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>0.0004397587035782635</v>
+        <v>0.0005425962153822184</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>0.0004397587035782635</v>
+        <v>0.0004345409979578108</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>0.0004397587035782635</v>
+        <v>0.0004361128958407789</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>0.0004438787000253797</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>0.0004941371153108776</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>0.0006011450896039605</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C106">
-        <v>0.001541363308206201</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.04252557829022408</v>
+        <v>0.0004126676358282566</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>0.07936006784439087</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>0.1122782155871391</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>0.1162996143102646</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>0.109050065279007</v>
+        <v>0.0004352926625870168</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B112">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>0.07299329340457916</v>
+        <v>0.0007344872574321926</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>0.04119419679045677</v>
+        <v>0.01807649247348309</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>0.02069580554962158</v>
+        <v>0.05084462463855743</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>0.0005224802880547941</v>
+        <v>0.06609056890010834</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B116">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>0.0004475681635085493</v>
+        <v>0.08694059401750565</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B117">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>0.0004588653100654483</v>
+        <v>0.08601947873830795</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B118">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>0.0004418992321006954</v>
+        <v>0.08759179711341858</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>0.0004418992321006954</v>
+        <v>0.09500889480113983</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>0.0004418992321006954</v>
+        <v>0.1011279597878456</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>0.07440485060214996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>0.04233886674046516</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B123">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>0.01476211939007044</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>0.000909334106836468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>0.0004508501151576638</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B126">
+        <v>19</v>
+      </c>
+      <c r="C126">
+        <v>0.0004524219548329711</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>0.0004347084905020893</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B128">
+        <v>21</v>
+      </c>
+      <c r="C128">
+        <v>0.0004301220760680735</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B129">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>0.0004301220760680735</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B130">
         <v>23</v>
       </c>
-      <c r="C121">
-        <v>0.0004420509794726968</v>
+      <c r="C130">
+        <v>0.0004303359892219305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0.0004388741217553616</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0.0004408017266541719</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>0.0004484987002797425</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>0.0004505436809267849</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0.0004523458483163267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>0.0007419713656418025</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>0.01713333278894424</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>0.04323858395218849</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>0.05604899302124977</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>0.06823310256004333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>0.08366461098194122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>0.08917690813541412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>0.093344546854496</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B144">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>0.09425058215856552</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>0.06476219743490219</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>0.03956085070967674</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>0.01664765551686287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>0.0008582113077864051</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B149">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>0.0005421385285444558</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B150">
+        <v>19</v>
+      </c>
+      <c r="C150">
+        <v>0.0005129086785018444</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B151">
+        <v>20</v>
+      </c>
+      <c r="C151">
+        <v>0.0004534218460321426</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B152">
+        <v>21</v>
+      </c>
+      <c r="C152">
+        <v>0.0004301073495298624</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B153">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>0.0004307451308704913</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B154">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>0.0004371198010630906</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0.0004429678374435753</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0.000440922798588872</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>0.0004428467655088753</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>0.0004428467655088753</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0.0004484625242184848</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>0.0005873179179616272</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>0.01697569526731968</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>0.03685194253921509</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>0.05738821253180504</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>0.07715358585119247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>0.09088144451379776</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>0.09609737247228622</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>0.09043680131435394</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B168">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>0.06311808526515961</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B169">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>0.06214949861168861</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B170">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>0.03997138887643814</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B171">
+        <v>16</v>
+      </c>
+      <c r="C171">
+        <v>0.0152448108419776</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B172">
+        <v>17</v>
+      </c>
+      <c r="C172">
+        <v>0.001036584610119462</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>0.0005467209266498685</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B174">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>0.0005589585052803159</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B175">
+        <v>20</v>
+      </c>
+      <c r="C175">
+        <v>0.0005412448663264513</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B176">
+        <v>21</v>
+      </c>
+      <c r="C176">
+        <v>0.0005412448663264513</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B177">
+        <v>22</v>
+      </c>
+      <c r="C177">
+        <v>0.000495194923132658</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B178">
+        <v>23</v>
+      </c>
+      <c r="C178">
+        <v>0.000495194923132658</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0.0004425621591508389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>0.0004425621591508389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>0.0004425621591508389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>0.0004425621591508389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>0.0004425621591508389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0.0007286989712156355</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>0.01486404705792665</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B186">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>0.03626898676156998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>0.06186268106102943</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>0.07251244783401489</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>0.08694620430469513</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B190">
+        <v>11</v>
+      </c>
+      <c r="C190">
+        <v>0.1016719192266464</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>0.1138146370649338</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>0.1089118346571922</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B193">
+        <v>14</v>
+      </c>
+      <c r="C193">
+        <v>0.06994080543518066</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B194">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>0.04301881045103073</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B195">
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <v>0.01666374132037163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B196">
+        <v>17</v>
+      </c>
+      <c r="C196">
+        <v>0.0008913112687878311</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B197">
+        <v>18</v>
+      </c>
+      <c r="C197">
+        <v>0.000500400667078793</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B198">
+        <v>19</v>
+      </c>
+      <c r="C198">
+        <v>0.000493133848067373</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B199">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>0.000475420180009678</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B200">
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>0.0004753617395181209</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B201">
+        <v>22</v>
+      </c>
+      <c r="C201">
+        <v>0.0004753617395181209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B202">
+        <v>23</v>
+      </c>
+      <c r="C202">
+        <v>0.000475420180009678</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0.0004231141647323966</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>0.0004231141647323966</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>0.0004231141647323966</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>0.0004231141647323966</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>0.0004231141647323966</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>0.0008768449770286679</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B209">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>0.0168948657810688</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B210">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>0.04246878623962402</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B211">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>0.06215303763747215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B212">
+        <v>9</v>
+      </c>
+      <c r="C212">
+        <v>0.08752203732728958</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213">
+        <v>0.09738326072692871</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B214">
+        <v>11</v>
+      </c>
+      <c r="C214">
+        <v>0.09097639471292496</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215">
+        <v>0.08331027626991272</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216">
+        <v>0.0504971407353878</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B217">
+        <v>14</v>
+      </c>
+      <c r="C217">
+        <v>0.04204953089356422</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B218">
+        <v>15</v>
+      </c>
+      <c r="C218">
+        <v>0.03128882870078087</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B219">
+        <v>16</v>
+      </c>
+      <c r="C219">
+        <v>0.01587475091218948</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B220">
+        <v>17</v>
+      </c>
+      <c r="C220">
+        <v>0.001386878429912031</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B221">
+        <v>18</v>
+      </c>
+      <c r="C221">
+        <v>0.0004345409979578108</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B222">
+        <v>19</v>
+      </c>
+      <c r="C222">
+        <v>0.000451360858278349</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>0.0004336473357398063</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B224">
+        <v>21</v>
+      </c>
+      <c r="C224">
+        <v>0.0004335888952482492</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B225">
+        <v>22</v>
+      </c>
+      <c r="C225">
+        <v>0.0004336473357398063</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B226">
+        <v>23</v>
+      </c>
+      <c r="C226">
+        <v>0.0004336473357398063</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0.0004231141647323966</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0.0004397381562739611</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>0.0004414258291944861</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>0.0004414258291944861</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>0.0004414258291944861</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B232">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>0.0008051001932471991</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>0.01189794670790434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B234">
+        <v>7</v>
+      </c>
+      <c r="C234">
+        <v>0.03234719485044479</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>0.04330271109938622</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B236">
+        <v>9</v>
+      </c>
+      <c r="C236">
+        <v>0.06309371441602707</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B237">
+        <v>10</v>
+      </c>
+      <c r="C237">
+        <v>0.07481218129396439</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+      <c r="C238">
+        <v>0.09416646510362625</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>0.1044008880853653</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B240">
+        <v>13</v>
+      </c>
+      <c r="C240">
+        <v>0.1038582548499107</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B241">
+        <v>14</v>
+      </c>
+      <c r="C241">
+        <v>0.06765440851449966</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B242">
+        <v>15</v>
+      </c>
+      <c r="C242">
+        <v>0.04854056611657143</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B243">
+        <v>16</v>
+      </c>
+      <c r="C243">
+        <v>0.01986230723559856</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B244">
+        <v>17</v>
+      </c>
+      <c r="C244">
+        <v>0.001380427740514278</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B245">
+        <v>18</v>
+      </c>
+      <c r="C245">
+        <v>0.00054181955056265</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B246">
+        <v>19</v>
+      </c>
+      <c r="C246">
+        <v>0.0005540571291930974</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247">
+        <v>0.0005363435484468937</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B248">
+        <v>21</v>
+      </c>
+      <c r="C248">
+        <v>0.0004902936052531004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B249">
+        <v>22</v>
+      </c>
+      <c r="C249">
+        <v>0.0004923386150039732</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B250">
+        <v>23</v>
+      </c>
+      <c r="C250">
+        <v>0.000495194923132658</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0.0004233629442751408</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>0.0004315162950661033</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>0.0004315162950661033</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>0.0004315162950661033</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>0.0004315162950661033</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>0.0009061183664016426</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>0.01532745454460382</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>0.03480944409966469</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B259">
+        <v>8</v>
+      </c>
+      <c r="C259">
+        <v>0.0433250330388546</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <v>0.0594363659620285</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B261">
+        <v>10</v>
+      </c>
+      <c r="C261">
+        <v>0.07362452149391174</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B262">
+        <v>11</v>
+      </c>
+      <c r="C262">
+        <v>0.09741663187742233</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B263">
+        <v>12</v>
+      </c>
+      <c r="C263">
+        <v>0.1318269073963165</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264">
+        <v>0.1134420707821846</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B265">
+        <v>14</v>
+      </c>
+      <c r="C265">
+        <v>0.09153497219085693</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B266">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>0.05352230370044708</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+      <c r="C267">
+        <v>0.02121992409229279</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B268">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>0.001724560745060444</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B269">
+        <v>18</v>
+      </c>
+      <c r="C269">
+        <v>0.000511323451064527</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B270">
+        <v>19</v>
+      </c>
+      <c r="C270">
+        <v>0.0005235610296949744</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B271">
+        <v>20</v>
+      </c>
+      <c r="C271">
+        <v>0.0005058474489487708</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B272">
+        <v>21</v>
+      </c>
+      <c r="C272">
+        <v>0.000475420180009678</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B273">
+        <v>22</v>
+      </c>
+      <c r="C273">
+        <v>0.0004923386150039732</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B274">
+        <v>23</v>
+      </c>
+      <c r="C274">
+        <v>0.0004836804291699082</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0.0005293558933772147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>0.0004436754388734698</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>0.000434836489148438</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>0.0004498112830333412</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>0.0004205901350360364</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>0.0007569559966214001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>0.01155746448785067</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B282">
+        <v>7</v>
+      </c>
+      <c r="C282">
+        <v>0.02645236067473888</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
+      <c r="C283">
+        <v>0.03638579696416855</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B284">
+        <v>9</v>
+      </c>
+      <c r="C284">
+        <v>0.04567687213420868</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B285">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>0.05315402150154114</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B286">
+        <v>11</v>
+      </c>
+      <c r="C286">
+        <v>0.0524531863629818</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B287">
+        <v>12</v>
+      </c>
+      <c r="C287">
+        <v>0.05223784595727921</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B288">
+        <v>13</v>
+      </c>
+      <c r="C288">
+        <v>0.05177050083875656</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289">
+        <v>0.0358419232070446</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B290">
+        <v>15</v>
+      </c>
+      <c r="C290">
+        <v>0.01545877102762461</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B291">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <v>0.005910058505833149</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B292">
+        <v>17</v>
+      </c>
+      <c r="C292">
+        <v>0.0007514034514315426</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B293">
+        <v>18</v>
+      </c>
+      <c r="C293">
+        <v>0.0004378484445624053</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B294">
+        <v>19</v>
+      </c>
+      <c r="C294">
+        <v>0.0004449101397767663</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B295">
+        <v>20</v>
+      </c>
+      <c r="C295">
+        <v>0.0004300019354559481</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B296">
+        <v>21</v>
+      </c>
+      <c r="C296">
+        <v>0.0004300019354559481</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B297">
+        <v>22</v>
+      </c>
+      <c r="C297">
+        <v>0.0004271965590305626</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B298">
+        <v>23</v>
+      </c>
+      <c r="C298">
+        <v>0.0004373342380858958</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0.0004536665219347924</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>0.0004448748950380832</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>0.0004420464974828064</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>0.0004420464974828064</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>0.000449743471108377</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>0.0005600354634225368</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>0.007422219961881638</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>0.0168394036591053</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B307">
+        <v>8</v>
+      </c>
+      <c r="C307">
+        <v>0.02231425419449806</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B308">
+        <v>9</v>
+      </c>
+      <c r="C308">
+        <v>0.02510637976229191</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B309">
+        <v>10</v>
+      </c>
+      <c r="C309">
+        <v>0.03408375754952431</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B310">
+        <v>11</v>
+      </c>
+      <c r="C310">
+        <v>0.04590769857168198</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B311">
+        <v>12</v>
+      </c>
+      <c r="C311">
+        <v>0.04726443067193031</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>0.04057198017835617</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>0.03638263419270515</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314">
+        <v>0.03080137446522713</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B315">
+        <v>16</v>
+      </c>
+      <c r="C315">
+        <v>0.01198461558669806</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B316">
+        <v>17</v>
+      </c>
+      <c r="C316">
+        <v>0.001083916751667857</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B317">
+        <v>18</v>
+      </c>
+      <c r="C317">
+        <v>0.0004226350865792483</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B318">
+        <v>19</v>
+      </c>
+      <c r="C318">
+        <v>0.0004363722109701484</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B319">
+        <v>20</v>
+      </c>
+      <c r="C319">
+        <v>0.0004186586302239448</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B320">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>0.0004186586302239448</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B321">
+        <v>22</v>
+      </c>
+      <c r="C321">
+        <v>0.0004186001897323877</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B322">
+        <v>23</v>
+      </c>
+      <c r="C322">
+        <v>0.0004218549293000251</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0.0004524693649727851</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>0.0004532068269327283</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>0.0004532068269327283</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>0.0004570611054077744</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>0.0004532068269327283</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B328">
+        <v>5</v>
+      </c>
+      <c r="C328">
+        <v>0.003282715566456318</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B329">
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <v>0.03294377028942108</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>0.08916261792182922</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B331">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>0.09898493438959122</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B332">
+        <v>9</v>
+      </c>
+      <c r="C332">
+        <v>0.1154463589191437</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B333">
+        <v>10</v>
+      </c>
+      <c r="C333">
+        <v>0.1030752658843994</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B334">
+        <v>11</v>
+      </c>
+      <c r="C334">
+        <v>0.1352121084928513</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B335">
+        <v>12</v>
+      </c>
+      <c r="C335">
+        <v>0.1158534958958626</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B336">
+        <v>13</v>
+      </c>
+      <c r="C336">
+        <v>0.09101636707782745</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B337">
+        <v>14</v>
+      </c>
+      <c r="C337">
+        <v>0.06279154121875763</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B338">
+        <v>15</v>
+      </c>
+      <c r="C338">
+        <v>0.03652003780007362</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_FNC.xlsx
+++ b/Transavia/Production/Results/Results_daily_FNC.xlsx
@@ -377,101 +377,101 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.01536723133176565</v>
+        <v>0.08756712079048157</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.004861688707023859</v>
+        <v>0.08197470754384995</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.0004548501747194678</v>
+        <v>0.07119745016098022</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.0004394205170683563</v>
+        <v>0.04943334311246872</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.0004562403773888946</v>
+        <v>0.03762370347976685</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.0004385268548503518</v>
+        <v>0.02119929902255535</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.0004385268548503518</v>
+        <v>0.008001661859452724</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.0004385268548503518</v>
+        <v>0.0004690714995376766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.0004176910151727498</v>
+        <v>0.000424635480158031</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -479,10 +479,10 @@
         <v>45365</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.0004664785810746253</v>
+        <v>0.0004414553986862302</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -490,10 +490,10 @@
         <v>45365</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.0004664785810746253</v>
+        <v>0.0004237418179400265</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -501,10 +501,10 @@
         <v>45365</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.0004519789945334196</v>
+        <v>0.0004237418179400265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -512,10 +512,10 @@
         <v>45365</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.0004485435783863068</v>
+        <v>0.0004237418179400265</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -523,219 +523,219 @@
         <v>45365</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.0005353747401386499</v>
+        <v>0.0004454825830180198</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0005931176710873842</v>
+        <v>0.0004372573457658291</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.007861783728003502</v>
+        <v>0.0004664785810746253</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.02564908377826214</v>
+        <v>0.0004485435783863068</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.0359961986541748</v>
+        <v>0.0004515037289820611</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.04653127491474152</v>
+        <v>0.0004641895357053727</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.05086313188076019</v>
+        <v>0.0005904458230361342</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.05532427877187729</v>
+        <v>0.007539079990237951</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.06072518974542618</v>
+        <v>0.02308044582605362</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.05717086419463158</v>
+        <v>0.03100561909377575</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.03509983047842979</v>
+        <v>0.04604475200176239</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.02552779018878937</v>
+        <v>0.05087395384907722</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.007830577902495861</v>
+        <v>0.0614948682487011</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.0004690714995376766</v>
+        <v>0.06165755167603493</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.0004400778561830521</v>
+        <v>0.05060034245252609</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0.0004568977165035903</v>
+        <v>0.04941045865416527</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.000456842768471688</v>
+        <v>0.02981413714587688</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.000456842768471688</v>
+        <v>0.01543531659990549</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.000456842768471688</v>
+        <v>0.0004559691587928683</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0.0004631412157323211</v>
+        <v>0.0004318387946113944</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -743,10 +743,10 @@
         <v>45366</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0.0004759164294227958</v>
+        <v>0.0004466136742848903</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -754,10 +754,10 @@
         <v>45366</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0.0004550805606413633</v>
+        <v>0.0004289001226425171</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -765,10 +765,10 @@
         <v>45366</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.0004843019123654813</v>
+        <v>0.0004303359892219305</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -776,10 +776,10 @@
         <v>45366</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.0004843019123654813</v>
+        <v>0.0004303359892219305</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -787,219 +787,219 @@
         <v>45366</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.0004843019123654813</v>
+        <v>0.0004206909507047385</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.0005492009804584086</v>
+        <v>0.0004328868526499718</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.01137552130967379</v>
+        <v>0.0004418555763550103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.0373786985874176</v>
+        <v>0.0004587204894050956</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.05832456797361374</v>
+        <v>0.0004654737131204456</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.07483088225126266</v>
+        <v>0.0004803058400284499</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.0943232923746109</v>
+        <v>0.0008240048191510141</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.09905421733856201</v>
+        <v>0.03887262940406799</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.08639990538358688</v>
+        <v>0.1014251559972763</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.08800901472568512</v>
+        <v>0.167786568403244</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.05694010108709335</v>
+        <v>0.1459166407585144</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.03798653930425644</v>
+        <v>0.1301255971193314</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.0183353628963232</v>
+        <v>0.1149417832493782</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.0004142821417190135</v>
+        <v>0.1488355994224548</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>0.0004213122592773288</v>
+        <v>0.1130070239305496</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>0.000438346090959385</v>
+        <v>0.09777624905109406</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>0.0004206325102131814</v>
+        <v>0.0583198070526123</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>0.0004225479497108608</v>
+        <v>0.02110490202903748</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0.0004295037651900202</v>
+        <v>0.0008977631223388016</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0.0004346675996202976</v>
+        <v>0.0004345409979578108</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>45367</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0.0004581829125527292</v>
+        <v>0.000451360858278349</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>45367</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0.0004583905101753771</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>45367</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.0004654737131204456</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>45367</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.0004803058400284499</v>
+        <v>0.0004244109732098877</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1051,219 +1051,219 @@
         <v>45367</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.000476408313261345</v>
+        <v>0.0004286862094886601</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.0008653850527480245</v>
+        <v>0.0004389951936900616</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.03963937610387802</v>
+        <v>0.0004388741217553616</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.0997760146856308</v>
+        <v>0.0004408017266541719</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>0.1629505902528763</v>
+        <v>0.0004428467655088753</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0.1693043410778046</v>
+        <v>0.0004484625242184848</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.1275356858968735</v>
+        <v>0.0004892038414254785</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.1372346431016922</v>
+        <v>0.01121898554265499</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>0.1287816613912582</v>
+        <v>0.03047548793256283</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.1140500903129578</v>
+        <v>0.04123341292142868</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.08531764149665833</v>
+        <v>0.05718814581632614</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.04451722279191017</v>
+        <v>0.06041331589221954</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.01748240739107132</v>
+        <v>0.06192597001791</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.0009016821277327836</v>
+        <v>0.06547047197818756</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>0.0004345409979578108</v>
+        <v>0.07236611843109131</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>0.000451360858278349</v>
+        <v>0.07973361760377884</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>0.0004336473357398063</v>
+        <v>0.0436541847884655</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.0004336473357398063</v>
+        <v>0.01916205883026123</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0.0004183993150945753</v>
+        <v>0.001224230974912643</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0.0004183993150945753</v>
+        <v>0.0004192345368210226</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>45368</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>0.0004126676358282566</v>
+        <v>0.0004513024177867919</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>45368</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0.0004330079536885023</v>
+        <v>0.0004183408746030182</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>45368</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>0.0004330079536885023</v>
+        <v>0.0004183408746030182</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>45368</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>0.0004328868526499718</v>
+        <v>0.0004204185970593244</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1315,219 +1315,219 @@
         <v>45368</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>0.0004328868526499718</v>
+        <v>0.0004206909507047385</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.000491393031552434</v>
+        <v>0.0004328868526499718</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.01685526221990585</v>
+        <v>0.0004405253857839853</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.04290797561407089</v>
+        <v>0.0004405253857839853</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.05763650685548782</v>
+        <v>0.0004405253857839853</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.06385919451713562</v>
+        <v>0.0004405253857839853</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.08622176200151443</v>
+        <v>0.0008780034841038287</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.09734632074832916</v>
+        <v>0.02998605370521545</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0.09773741662502289</v>
+        <v>0.08765407651662827</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.08003149181604385</v>
+        <v>0.13703852891922</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.05665340274572372</v>
+        <v>0.1158772185444832</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.03336742892861366</v>
+        <v>0.1012678444385529</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.01477877143770456</v>
+        <v>0.1208517327904701</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.0005425962153822184</v>
+        <v>0.09482719004154205</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>0.0004345409979578108</v>
+        <v>0.09998027980327606</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>0.0004361128958407789</v>
+        <v>0.06374850124120712</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>0.0004183993150945753</v>
+        <v>0.04183320701122284</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>0.0004183993150945753</v>
+        <v>0.01604992896318436</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0.0004183993150945753</v>
+        <v>0.001386878429912031</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0.0004183993150945753</v>
+        <v>0.0004345409979578108</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>45369</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.0004126676358282566</v>
+        <v>0.000451360858278349</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>45369</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>0.0004330079536885023</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>45369</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>0.0004330079536885023</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>45369</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>0.0004330079536885023</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1579,219 +1579,219 @@
         <v>45369</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>0.0004352926625870168</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.0007344872574321926</v>
+        <v>0.0004126676358282566</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.01807649247348309</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.05084462463855743</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.06609056890010834</v>
+        <v>0.0004389951936900616</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.08694059401750565</v>
+        <v>0.0004429678374435753</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>0.08601947873830795</v>
+        <v>0.0007109568105079234</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.08759179711341858</v>
+        <v>0.01698117330670357</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>0.09500889480113983</v>
+        <v>0.03430158644914627</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.1011279597878456</v>
+        <v>0.04033904522657394</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.07440485060214996</v>
+        <v>0.05584198236465454</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.04233886674046516</v>
+        <v>0.05477992072701454</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.01476211939007044</v>
+        <v>0.05721612274646759</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.000909334106836468</v>
+        <v>0.05237586051225662</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>0.0004508501151576638</v>
+        <v>0.0479859821498394</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>0.0004524219548329711</v>
+        <v>0.03913702070713043</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>0.0004347084905020893</v>
+        <v>0.03125420957803726</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>0.0004301220760680735</v>
+        <v>0.0143692996352911</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0.0004301220760680735</v>
+        <v>0.0009655131143517792</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>0.0004303359892219305</v>
+        <v>0.0004586841678246856</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>45370</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0.0004388741217553616</v>
+        <v>0.0004596210783347487</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>45370</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>0.0004408017266541719</v>
+        <v>0.0004534218460321426</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>45370</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>0.0004484987002797425</v>
+        <v>0.0004300019354559481</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>45370</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>0.0004505436809267849</v>
+        <v>0.0004307451308704913</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1843,219 +1843,219 @@
         <v>45370</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>0.0004523458483163267</v>
+        <v>0.0004409334214869887</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.0007419713656418025</v>
+        <v>0.0004310937656555325</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.01713333278894424</v>
+        <v>0.0004292915982659906</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.04323858395218849</v>
+        <v>0.0004292915982659906</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>0.05604899302124977</v>
+        <v>0.0004272465885151178</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>0.06823310256004333</v>
+        <v>0.0004253189836163074</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.08366461098194122</v>
+        <v>0.0008385643013752997</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>0.08917690813541412</v>
+        <v>0.02117131650447845</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>0.093344546854496</v>
+        <v>0.05427034199237823</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.09425058215856552</v>
+        <v>0.06580878049135208</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.06476219743490219</v>
+        <v>0.09016752243041992</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.03956085070967674</v>
+        <v>0.09602701663970947</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.01664765551686287</v>
+        <v>0.09577178955078125</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.0008582113077864051</v>
+        <v>0.09234592318534851</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>0.0005421385285444558</v>
+        <v>0.08760414272546768</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>0.0005129086785018444</v>
+        <v>0.05277600511908531</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>0.0004534218460321426</v>
+        <v>0.03763910010457039</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>0.0004301073495298624</v>
+        <v>0.01293000299483538</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0.0004307451308704913</v>
+        <v>0.0004285153700038791</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>0.0004371198010630906</v>
+        <v>0.000431015738286078</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>45371</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>0.0004429678374435753</v>
+        <v>0.0004463997611310333</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>45371</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>0.000440922798588872</v>
+        <v>0.0004307312192395329</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>45371</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>0.0004428467655088753</v>
+        <v>0.0004307312192395329</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>45371</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.0004428467655088753</v>
+        <v>0.0004309451323933899</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2107,219 +2107,219 @@
         <v>45371</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.0004484625242184848</v>
+        <v>0.0004309451323933899</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.0005873179179616272</v>
+        <v>0.0004408017266541719</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.01697569526731968</v>
+        <v>0.0004465710953809321</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.03685194253921509</v>
+        <v>0.0004465710953809321</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.05738821253180504</v>
+        <v>0.0004428685933817178</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.07715358585119247</v>
+        <v>0.0004405838262755424</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.09088144451379776</v>
+        <v>0.0008648164221085608</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.09609737247228622</v>
+        <v>0.02156151458621025</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0.09043680131435394</v>
+        <v>0.05913227051496506</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B168">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.06311808526515961</v>
+        <v>0.08116950839757919</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B169">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.06214949861168861</v>
+        <v>0.1137576028704643</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.03997138887643814</v>
+        <v>0.126853883266449</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B171">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>0.0152448108419776</v>
+        <v>0.139588251709938</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B172">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C172">
-        <v>0.001036584610119462</v>
+        <v>0.1452863812446594</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B173">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>0.0005467209266498685</v>
+        <v>0.134364128112793</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B174">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C174">
-        <v>0.0005589585052803159</v>
+        <v>0.1033762544393539</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B175">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C175">
-        <v>0.0005412448663264513</v>
+        <v>0.05452274531126022</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B176">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176">
-        <v>0.0005412448663264513</v>
+        <v>0.0206058993935585</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B177">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>0.000495194923132658</v>
+        <v>0.001246647443622351</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B178">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C178">
-        <v>0.000495194923132658</v>
+        <v>0.000500400667078793</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>45372</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C179">
-        <v>0.0004425621591508389</v>
+        <v>0.000493133848067373</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>45372</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C180">
-        <v>0.0004425621591508389</v>
+        <v>0.000475420180009678</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>45372</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C181">
-        <v>0.0004425621591508389</v>
+        <v>0.0004336473357398063</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>45372</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C182">
-        <v>0.0004425621591508389</v>
+        <v>0.0004336473357398063</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2371,219 +2371,219 @@
         <v>45372</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C183">
-        <v>0.0004425621591508389</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0.0007286989712156355</v>
+        <v>0.0004126676358282566</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>0.01486404705792665</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>0.03626898676156998</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>0.06186268106102943</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>0.07251244783401489</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189">
-        <v>0.08694620430469513</v>
+        <v>0.0007159765809774399</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>0.1016719192266464</v>
+        <v>0.01504247821867466</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B191">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C191">
-        <v>0.1138146370649338</v>
+        <v>0.04339130595326424</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C192">
-        <v>0.1089118346571922</v>
+        <v>0.06289719790220261</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C193">
-        <v>0.06994080543518066</v>
+        <v>0.09262615442276001</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C194">
-        <v>0.04301881045103073</v>
+        <v>0.1160653010010719</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C195">
-        <v>0.01666374132037163</v>
+        <v>0.1368913054466248</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C196">
-        <v>0.0008913112687878311</v>
+        <v>0.1347378343343735</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B197">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C197">
-        <v>0.000500400667078793</v>
+        <v>0.1131536811590195</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B198">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>0.000493133848067373</v>
+        <v>0.08346082270145416</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B199">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C199">
-        <v>0.000475420180009678</v>
+        <v>0.05196963250637054</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B200">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C200">
-        <v>0.0004753617395181209</v>
+        <v>0.02122067660093307</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B201">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C201">
-        <v>0.0004753617395181209</v>
+        <v>0.001246647443622351</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B202">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C202">
-        <v>0.000475420180009678</v>
+        <v>0.0004763138422276825</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>45373</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C203">
-        <v>0.0004231141647323966</v>
+        <v>0.000451360858278349</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>45373</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C204">
-        <v>0.0004231141647323966</v>
+        <v>0.0004336473357398063</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>45373</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C205">
-        <v>0.0004231141647323966</v>
+        <v>0.0004183993150945753</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>45373</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C206">
-        <v>0.0004231141647323966</v>
+        <v>0.0004244109732098877</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2635,219 +2635,219 @@
         <v>45373</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C207">
-        <v>0.0004231141647323966</v>
+        <v>0.0004301220760680735</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>0.0008768449770286679</v>
+        <v>0.0004429678374435753</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>0.0168948657810688</v>
+        <v>0.0004389951936900616</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C210">
-        <v>0.04246878623962402</v>
+        <v>0.0004330079536885023</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>0.06215303763747215</v>
+        <v>0.0004328868526499718</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>0.08752203732728958</v>
+        <v>0.0004328868526499718</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>0.09738326072692871</v>
+        <v>0.0009797920938581228</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>0.09097639471292496</v>
+        <v>0.02512918040156364</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C215">
-        <v>0.08331027626991272</v>
+        <v>0.06896632164716721</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B216">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>0.0504971407353878</v>
+        <v>0.0968647226691246</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B217">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C217">
-        <v>0.04204953089356422</v>
+        <v>0.1192378252744675</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B218">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C218">
-        <v>0.03128882870078087</v>
+        <v>0.1245676875114441</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B219">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C219">
-        <v>0.01587475091218948</v>
+        <v>0.1523037552833557</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B220">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C220">
-        <v>0.001386878429912031</v>
+        <v>0.1581986993551254</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B221">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C221">
-        <v>0.0004345409979578108</v>
+        <v>0.1487172096967697</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B222">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C222">
-        <v>0.000451360858278349</v>
+        <v>0.129957526922226</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B223">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C223">
-        <v>0.0004336473357398063</v>
+        <v>0.08137082308530807</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B224">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C224">
-        <v>0.0004335888952482492</v>
+        <v>0.03588179871439934</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B225">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C225">
-        <v>0.0004336473357398063</v>
+        <v>0.003535420866683125</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B226">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C226">
-        <v>0.0004336473357398063</v>
+        <v>0.0004973567556589842</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>45374</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C227">
-        <v>0.0004231141647323966</v>
+        <v>0.0005143851158209145</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2866,10 +2866,10 @@
         <v>45374</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C228">
-        <v>0.0004397381562739611</v>
+        <v>0.000454897788586095</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2877,10 +2877,10 @@
         <v>45374</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C229">
-        <v>0.0004414258291944861</v>
+        <v>0.0004396498261485249</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2888,10 +2888,10 @@
         <v>45374</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C230">
-        <v>0.0004414258291944861</v>
+        <v>0.0004408319655340165</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2899,219 +2899,219 @@
         <v>45374</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C231">
-        <v>0.0004414258291944861</v>
+        <v>0.0004481740761548281</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>0.0008051001932471991</v>
+        <v>0.0004738904535770416</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>0.01189794670790434</v>
+        <v>0.0004738904535770416</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B234">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C234">
-        <v>0.03234719485044479</v>
+        <v>0.0004737693816423416</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C235">
-        <v>0.04330271109938622</v>
+        <v>0.0004737693816423416</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C236">
-        <v>0.06309371441602707</v>
+        <v>0.0004737693816423416</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C237">
-        <v>0.07481218129396439</v>
+        <v>0.00473163602873683</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B238">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C238">
-        <v>0.09416646510362625</v>
+        <v>0.05407510697841644</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B239">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C239">
-        <v>0.1044008880853653</v>
+        <v>0.1285006403923035</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B240">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C240">
-        <v>0.1038582548499107</v>
+        <v>0.1912118047475815</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B241">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C241">
-        <v>0.06765440851449966</v>
+        <v>0.1793763935565948</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B242">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C242">
-        <v>0.04854056611657143</v>
+        <v>0.1335628777742386</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B243">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C243">
-        <v>0.01986230723559856</v>
+        <v>0.1516383290290833</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B244">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C244">
-        <v>0.001380427740514278</v>
+        <v>0.1207069829106331</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B245">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>0.00054181955056265</v>
+        <v>0.09711295366287231</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B246">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C246">
-        <v>0.0005540571291930974</v>
+        <v>0.05540230497717857</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B247">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C247">
-        <v>0.0005363435484468937</v>
+        <v>0.03579448536038399</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B248">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C248">
-        <v>0.0004902936052531004</v>
+        <v>0.01658140122890472</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B249">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C249">
-        <v>0.0004923386150039732</v>
+        <v>0.001046248595230281</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B250">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C250">
-        <v>0.000495194923132658</v>
+        <v>0.0004362112958915532</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>45375</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C251">
-        <v>0.0004233629442751408</v>
+        <v>0.0004478355986066163</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>45375</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C252">
-        <v>0.0004315162950661033</v>
+        <v>0.0004266334581188858</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>45375</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C253">
-        <v>0.0004315162950661033</v>
+        <v>0.000427646649768576</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>45375</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C254">
-        <v>0.0004315162950661033</v>
+        <v>0.000427646649768576</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3163,219 +3163,219 @@
         <v>45375</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C255">
-        <v>0.0004315162950661033</v>
+        <v>0.0004288039926905185</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>0.0009061183664016426</v>
+        <v>0.0004654737131204456</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>0.01532745454460382</v>
+        <v>0.000476408313261345</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B258">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C258">
-        <v>0.03480944409966469</v>
+        <v>0.000476408313261345</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C259">
-        <v>0.0433250330388546</v>
+        <v>0.0004749370855279267</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B260">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>0.0594363659620285</v>
+        <v>0.0004749370855279267</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B261">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C261">
-        <v>0.07362452149391174</v>
+        <v>0.004837249405682087</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C262">
-        <v>0.09741663187742233</v>
+        <v>0.05538289248943329</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B263">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C263">
-        <v>0.1318269073963165</v>
+        <v>0.1245420947670937</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B264">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C264">
-        <v>0.1134420707821846</v>
+        <v>0.1915359646081924</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B265">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C265">
-        <v>0.09153497219085693</v>
+        <v>0.1806395351886749</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B266">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C266">
-        <v>0.05352230370044708</v>
+        <v>0.2006278038024902</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B267">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C267">
-        <v>0.02121992409229279</v>
+        <v>0.1435725539922714</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B268">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C268">
-        <v>0.001724560745060444</v>
+        <v>0.135474681854248</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C269">
-        <v>0.000511323451064527</v>
+        <v>0.1196727603673935</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B270">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C270">
-        <v>0.0005235610296949744</v>
+        <v>0.1093582212924957</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B271">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C271">
-        <v>0.0005058474489487708</v>
+        <v>0.0662190169095993</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B272">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C272">
-        <v>0.000475420180009678</v>
+        <v>0.03176743164658546</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B273">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C273">
-        <v>0.0004923386150039732</v>
+        <v>0.003064162330701947</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B274">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C274">
-        <v>0.0004836804291699082</v>
+        <v>0.0004543779359664768</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3383,10 +3383,10 @@
         <v>45376</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C275">
-        <v>0.0005293558933772147</v>
+        <v>0.0004781536699738353</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3394,10 +3394,10 @@
         <v>45376</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C276">
-        <v>0.0004436754388734698</v>
+        <v>0.0004573675978463143</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3405,10 +3405,10 @@
         <v>45376</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C277">
-        <v>0.000434836489148438</v>
+        <v>0.0004566678835544735</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3416,10 +3416,10 @@
         <v>45376</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C278">
-        <v>0.0004498112830333412</v>
+        <v>0.000449755258159712</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3427,219 +3427,219 @@
         <v>45376</v>
       </c>
       <c r="B279">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C279">
-        <v>0.0004205901350360364</v>
+        <v>0.000449755258159712</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B280">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C280">
-        <v>0.0007569559966214001</v>
+        <v>0.0004749370855279267</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>0.01155746448785067</v>
+        <v>0.0004747980856336653</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>0.02645236067473888</v>
+        <v>0.0004747980856336653</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C283">
-        <v>0.03638579696416855</v>
+        <v>0.0004747980856336653</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B284">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>0.04567687213420868</v>
+        <v>0.0004747980856336653</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C285">
-        <v>0.05315402150154114</v>
+        <v>0.004719852935522795</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B286">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C286">
-        <v>0.0524531863629818</v>
+        <v>0.05039625987410545</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B287">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C287">
-        <v>0.05223784595727921</v>
+        <v>0.1114655956625938</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B288">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>0.05177050083875656</v>
+        <v>0.1778277158737183</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B289">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C289">
-        <v>0.0358419232070446</v>
+        <v>0.1646247953176498</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B290">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C290">
-        <v>0.01545877102762461</v>
+        <v>0.2198211252689362</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C291">
-        <v>0.005910058505833149</v>
+        <v>0.1452463716268539</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B292">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C292">
-        <v>0.0007514034514315426</v>
+        <v>0.1219822391867638</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B293">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C293">
-        <v>0.0004378484445624053</v>
+        <v>0.118320919573307</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B294">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C294">
-        <v>0.0004449101397767663</v>
+        <v>0.1128116548061371</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B295">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C295">
-        <v>0.0004300019354559481</v>
+        <v>0.06720970571041107</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B296">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C296">
-        <v>0.0004300019354559481</v>
+        <v>0.03302871808409691</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B297">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C297">
-        <v>0.0004271965590305626</v>
+        <v>0.003870978252962232</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B298">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C298">
-        <v>0.0004373342380858958</v>
+        <v>0.0004521401424426585</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3647,10 +3647,10 @@
         <v>45377</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C299">
-        <v>0.0004536665219347924</v>
+        <v>0.0004689600900746882</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3658,10 +3658,10 @@
         <v>45377</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C300">
-        <v>0.0004448748950380832</v>
+        <v>0.0004501979274209589</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3669,10 +3669,10 @@
         <v>45377</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C301">
-        <v>0.0004420464974828064</v>
+        <v>0.0004501979274209589</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3680,10 +3680,10 @@
         <v>45377</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C302">
-        <v>0.0004420464974828064</v>
+        <v>0.0004501979274209589</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3691,219 +3691,219 @@
         <v>45377</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C303">
-        <v>0.000449743471108377</v>
+        <v>0.0004514567262958735</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B304">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>0.0005600354634225368</v>
+        <v>0.0004737693816423416</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>0.007422219961881638</v>
+        <v>0.0004737693816423416</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C306">
-        <v>0.0168394036591053</v>
+        <v>0.0004814663843717426</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C307">
-        <v>0.02231425419449806</v>
+        <v>0.0004814663843717426</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C308">
-        <v>0.02510637976229191</v>
+        <v>0.0004814663843717426</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B309">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309">
-        <v>0.03408375754952431</v>
+        <v>0.00477497186511755</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C310">
-        <v>0.04590769857168198</v>
+        <v>0.03694002702832222</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B311">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C311">
-        <v>0.04726443067193031</v>
+        <v>0.1026505902409554</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C312">
-        <v>0.04057198017835617</v>
+        <v>0.157548800110817</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C313">
-        <v>0.03638263419270515</v>
+        <v>0.1588014215230942</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B314">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>0.03080137446522713</v>
+        <v>0.1989621818065643</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B315">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C315">
-        <v>0.01198461558669806</v>
+        <v>0.1622971296310425</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B316">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C316">
-        <v>0.001083916751667857</v>
+        <v>0.1880514472723007</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B317">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C317">
-        <v>0.0004226350865792483</v>
+        <v>0.1628442257642746</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B318">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C318">
-        <v>0.0004363722109701484</v>
+        <v>0.1259765326976776</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C319">
-        <v>0.0004186586302239448</v>
+        <v>0.07399448752403259</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B320">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C320">
-        <v>0.0004186586302239448</v>
+        <v>0.03499777242541313</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B321">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C321">
-        <v>0.0004186001897323877</v>
+        <v>0.003233977826312184</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B322">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C322">
-        <v>0.0004218549293000251</v>
+        <v>0.0004344825574662536</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3911,10 +3911,10 @@
         <v>45378</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C323">
-        <v>0.0004524693649727851</v>
+        <v>0.0004361128958407789</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3922,10 +3922,10 @@
         <v>45378</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C324">
-        <v>0.0004532068269327283</v>
+        <v>0.0004204770375508815</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3933,10 +3933,10 @@
         <v>45378</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C325">
-        <v>0.0004532068269327283</v>
+        <v>0.0004204770375508815</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3944,10 +3944,10 @@
         <v>45378</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C326">
-        <v>0.0004570611054077744</v>
+        <v>0.0004206325102131814</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3955,131 +3955,131 @@
         <v>45378</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C327">
-        <v>0.0004532068269327283</v>
+        <v>0.0004386898071970791</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C328">
-        <v>0.003282715566456318</v>
+        <v>0.0004808409430552274</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>0.03294377028942108</v>
+        <v>0.0004813273844774812</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C330">
-        <v>0.08916261792182922</v>
+        <v>0.0004813273844774812</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B331">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C331">
-        <v>0.09898493438959122</v>
+        <v>0.0004807922814507037</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B332">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>0.1154463589191437</v>
+        <v>0.0004813273844774812</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B333">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C333">
-        <v>0.1030752658843994</v>
+        <v>0.00614922447130084</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B334">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C334">
-        <v>0.1352121084928513</v>
+        <v>0.05746680498123169</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B335">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C335">
-        <v>0.1158534958958626</v>
+        <v>0.1346153765916824</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B336">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C336">
-        <v>0.09101636707782745</v>
+        <v>0.1922376453876495</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C337">
-        <v>0.06279154121875763</v>
+        <v>0.1988222151994705</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B338">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C338">
-        <v>0.03652003780007362</v>
+        <v>0.2258290201425552</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_FNC.xlsx
+++ b/Transavia/Production/Results/Results_daily_FNC.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.01770184747874737</v>
+        <v>0.0004505818651523441</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.003246679436415434</v>
+        <v>0.0004496326728258282</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0.000435561261838302</v>
+        <v>0.09183134138584137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.0004453602596186101</v>
+        <v>0.06849777698516846</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0.0004269469354767352</v>
+        <v>0.01353317871689796</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7">
-        <v>0.0004269469354767352</v>
+        <v>0.0008665602072142065</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>0.0004269469354767352</v>
+        <v>0.0006421605357900262</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0.0004200390249025077</v>
+        <v>0.0006064419285394251</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0004350015369709581</v>
+        <v>0.0004319149593356997</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.0004350015369709581</v>
+        <v>0.0004326309135649353</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.0004348020593170077</v>
+        <v>0.0004295688413549215</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.000439965893747285</v>
+        <v>0.0004344971966929734</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.0004848224634770304</v>
+        <v>0.0004573448968585581</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>0.001093593658879399</v>
+        <v>0.0004573448968585581</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>0.03479059413075447</v>
+        <v>0.0080243069678545</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.09325286746025085</v>
+        <v>0.06417788565158844</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.155414879322052</v>
+        <v>0.1390110701322556</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.1277678906917572</v>
+        <v>0.2061935216188431</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.09819670766592026</v>
+        <v>0.2458764165639877</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B21">
         <v>11</v>
       </c>
       <c r="C21">
-        <v>0.1270406991243362</v>
+        <v>0.2740662097930908</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>0.1129253581166267</v>
+        <v>0.2698849737644196</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B23">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>0.09922190755605698</v>
+        <v>0.2598122358322144</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>0.09256408363580704</v>
+        <v>0.260152131319046</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
       <c r="C25">
-        <v>0.04937503859400749</v>
+        <v>0.2095416635274887</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B26">
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.02693412452936172</v>
+        <v>0.1493516564369202</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B27">
         <v>17</v>
       </c>
       <c r="C27">
-        <v>0.001838274765759706</v>
+        <v>0.1159717589616776</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B28">
         <v>18</v>
       </c>
       <c r="C28">
-        <v>0.0004239189729560167</v>
+        <v>0.08412500470876694</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B29">
         <v>19</v>
       </c>
       <c r="C29">
-        <v>0.0004975206102244556</v>
+        <v>0.05997941270470619</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30">
-        <v>0.0004386898071970791</v>
+        <v>0.007568716537207365</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B31">
         <v>21</v>
       </c>
       <c r="C31">
-        <v>0.0004277118423487991</v>
+        <v>0.0004265971074346453</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B32">
         <v>22</v>
       </c>
       <c r="C32">
-        <v>0.0004867627576459199</v>
+        <v>0.0004233172221574932</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B33">
         <v>23</v>
       </c>
       <c r="C33">
-        <v>0.0004346675996202976</v>
+        <v>0.0004204143479000777</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.0004418555763550103</v>
+        <v>0.0004461947537492961</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0.0004413204442244023</v>
+        <v>0.0004068352864123881</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0.0004464842786546797</v>
+        <v>0.0004068352864123881</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.0004576478095259517</v>
+        <v>0.0004297367413528264</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>0.0004581853863783181</v>
+        <v>0.0004327175847720355</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.0025276611559093</v>
+        <v>0.0004323418252170086</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.04963790252804756</v>
+        <v>0.006247670389711857</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.1089274287223816</v>
+        <v>0.04586115479469299</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>0.1767660826444626</v>
+        <v>0.09982658177614212</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B43">
         <v>9</v>
       </c>
       <c r="C43">
-        <v>0.2007883787155151</v>
+        <v>0.1382285505533218</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44">
-        <v>0.204741969704628</v>
+        <v>0.1637912094593048</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B45">
         <v>11</v>
       </c>
       <c r="C45">
-        <v>0.1354659497737885</v>
+        <v>0.1764120310544968</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B46">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>0.1585715860128403</v>
+        <v>0.1742341816425323</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
       <c r="C47">
-        <v>0.156861811876297</v>
+        <v>0.1627925932407379</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
       <c r="C48">
-        <v>0.1171974688768387</v>
+        <v>0.136001780629158</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
       <c r="C49">
-        <v>0.06289109587669373</v>
+        <v>0.09879820793867111</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B50">
         <v>16</v>
       </c>
       <c r="C50">
-        <v>0.03132598474621773</v>
+        <v>0.06991373747587204</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B51">
         <v>17</v>
       </c>
       <c r="C51">
-        <v>0.00312969577498734</v>
+        <v>0.04369214177131653</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B52">
         <v>18</v>
       </c>
       <c r="C52">
-        <v>0.0004525397380348295</v>
+        <v>0.04862212762236595</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B53">
         <v>19</v>
       </c>
       <c r="C53">
-        <v>0.0004541116359177977</v>
+        <v>0.04035429656505585</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B54">
         <v>20</v>
       </c>
       <c r="C54">
-        <v>0.0004363981133792549</v>
+        <v>0.005782336462289095</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B55">
         <v>21</v>
       </c>
       <c r="C55">
-        <v>0.0004384758940432221</v>
+        <v>0.0004553497128654271</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B56">
         <v>22</v>
       </c>
       <c r="C56">
-        <v>0.0004415191360749304</v>
+        <v>0.0004406121151987463</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B57">
         <v>23</v>
       </c>
       <c r="C57">
-        <v>0.0004417329910211265</v>
+        <v>0.0004406121151987463</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0.0004504859389271587</v>
+        <v>0.0003910760569851846</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0.0004504859389271587</v>
+        <v>0.0003910760569851846</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
-        <v>0.0004660088161472231</v>
+        <v>0.0003892804961651564</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.0004823138879146427</v>
+        <v>0.0003910760569851846</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>0.0004817787848878652</v>
+        <v>0.0003910760569851846</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>0.004652435425668955</v>
+        <v>0.0003850598877761513</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0.05737784504890442</v>
+        <v>0.004411957692354918</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B65">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>0.1341724693775177</v>
+        <v>0.02644769102334976</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
       <c r="C66">
-        <v>0.1898128241300583</v>
+        <v>0.04399939253926277</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67">
-        <v>0.192503809928894</v>
+        <v>0.0718110054731369</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
       <c r="C68">
-        <v>0.2210222184658051</v>
+        <v>0.09645792841911316</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B69">
         <v>11</v>
       </c>
       <c r="C69">
-        <v>0.2150625437498093</v>
+        <v>0.1229462251067162</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>0.1772533357143402</v>
+        <v>0.1425425559282303</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B71">
         <v>13</v>
       </c>
       <c r="C71">
-        <v>0.1628390103578568</v>
+        <v>0.1448282152414322</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B72">
         <v>14</v>
       </c>
       <c r="C72">
-        <v>0.1374444216489792</v>
+        <v>0.1274861544370651</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73">
-        <v>0.08304443955421448</v>
+        <v>0.1011743247509003</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B74">
         <v>16</v>
       </c>
       <c r="C74">
-        <v>0.04082140699028969</v>
+        <v>0.07430954277515411</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B75">
         <v>17</v>
       </c>
       <c r="C75">
-        <v>0.00497341388836503</v>
+        <v>0.05861507728695869</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B76">
         <v>18</v>
       </c>
       <c r="C76">
-        <v>0.0005991224315948784</v>
+        <v>0.06006526574492455</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B77">
         <v>19</v>
       </c>
       <c r="C77">
-        <v>0.0005367525154724717</v>
+        <v>0.04130827262997627</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B78">
         <v>20</v>
       </c>
       <c r="C78">
-        <v>0.0004643279826268554</v>
+        <v>0.003910234197974205</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B79">
         <v>21</v>
       </c>
       <c r="C79">
-        <v>0.0004643279826268554</v>
+        <v>0.0004406121151987463</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B80">
         <v>22</v>
       </c>
       <c r="C80">
-        <v>0.0004492189618758857</v>
+        <v>0.0004240487178321928</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B81">
         <v>23</v>
       </c>
       <c r="C81">
-        <v>0.0004481740761548281</v>
+        <v>0.0004240487178321928</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.0004511447041295469</v>
+        <v>0.0003910760569851846</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0.0004513498279266059</v>
+        <v>0.0003910176164936274</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>0.000451023515779525</v>
+        <v>0.000392347777960822</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0.0004478809132706374</v>
+        <v>0.0004181733238510787</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>0.0004841785703320056</v>
+        <v>0.000412157183745876</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87">
-        <v>0.003262176876887679</v>
+        <v>0.000412157183745876</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>0.04341808706521988</v>
+        <v>0.006791734602302313</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B89">
         <v>7</v>
       </c>
       <c r="C89">
-        <v>0.09703617542982101</v>
+        <v>0.04547402262687683</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B90">
         <v>8</v>
       </c>
       <c r="C90">
-        <v>0.1531566232442856</v>
+        <v>0.1033844798803329</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B91">
         <v>9</v>
       </c>
       <c r="C91">
-        <v>0.1863707154989243</v>
+        <v>0.164261981844902</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B92">
         <v>10</v>
       </c>
       <c r="C92">
-        <v>0.1708059012889862</v>
+        <v>0.2082982510328293</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B93">
         <v>11</v>
       </c>
       <c r="C93">
-        <v>0.1568962335586548</v>
+        <v>0.2397402673959732</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B94">
         <v>12</v>
       </c>
       <c r="C94">
-        <v>0.1595044732093811</v>
+        <v>0.2369421273469925</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B95">
         <v>13</v>
       </c>
       <c r="C95">
-        <v>0.1333242058753967</v>
+        <v>0.2276990562677383</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B96">
         <v>14</v>
       </c>
       <c r="C96">
-        <v>0.09868442267179489</v>
+        <v>0.2280352413654327</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B97">
         <v>15</v>
       </c>
       <c r="C97">
-        <v>0.07116766273975372</v>
+        <v>0.1472424119710922</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B98">
         <v>16</v>
       </c>
       <c r="C98">
-        <v>0.03076700679957867</v>
+        <v>0.1455266624689102</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B99">
         <v>17</v>
       </c>
       <c r="C99">
-        <v>0.00368363899178803</v>
+        <v>0.07671526819467545</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B100">
         <v>18</v>
       </c>
       <c r="C100">
-        <v>0.0004372917755972594</v>
+        <v>0.07685277611017227</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B101">
         <v>19</v>
       </c>
       <c r="C101">
-        <v>0.0004379699530545622</v>
+        <v>0.0480426549911499</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B102">
         <v>20</v>
       </c>
       <c r="C102">
-        <v>0.0004204185970593244</v>
+        <v>0.01048109866678715</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B103">
         <v>21</v>
       </c>
       <c r="C103">
-        <v>0.0004204185970593244</v>
+        <v>0.00045529127237387</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B104">
         <v>22</v>
       </c>
       <c r="C104">
-        <v>0.0004204770375508815</v>
+        <v>0.0004424691142048687</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B105">
         <v>23</v>
       </c>
       <c r="C105">
-        <v>0.0004309451323933899</v>
+        <v>0.0004265971074346453</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0.0004051036958117038</v>
+        <v>0.0004181784170214087</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>0.0004314607358537614</v>
+        <v>0.0004181733238510787</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>0.0004440977645572275</v>
+        <v>0.000412157183745876</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>0.0004519789945334196</v>
+        <v>0.00041241614962928</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110">
-        <v>0.0004515037289820611</v>
+        <v>0.0004159286327194422</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>0.0008057593950070441</v>
+        <v>0.0004166445869486779</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B112">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0.01142515614628792</v>
+        <v>0.009322952479124069</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>0.02393878065049648</v>
+        <v>0.05729316547513008</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B114">
         <v>8</v>
       </c>
       <c r="C114">
-        <v>0.03433342650532722</v>
+        <v>0.1225562915205956</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B115">
         <v>9</v>
       </c>
       <c r="C115">
-        <v>0.04376689344644547</v>
+        <v>0.1718598455190659</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B116">
         <v>10</v>
       </c>
       <c r="C116">
-        <v>0.0509628988802433</v>
+        <v>0.2054253071546555</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B117">
         <v>11</v>
       </c>
       <c r="C117">
-        <v>0.0570400170981884</v>
+        <v>0.2294715940952301</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B118">
         <v>12</v>
       </c>
       <c r="C118">
-        <v>0.05467231944203377</v>
+        <v>0.2178615033626556</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B119">
         <v>13</v>
       </c>
       <c r="C119">
-        <v>0.04923000931739807</v>
+        <v>0.1954184025526047</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B120">
         <v>14</v>
       </c>
       <c r="C120">
-        <v>0.04583084210753441</v>
+        <v>0.1610527485609055</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B121">
         <v>15</v>
       </c>
       <c r="C121">
-        <v>0.03060879744589329</v>
+        <v>0.1226738467812538</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B122">
         <v>16</v>
       </c>
       <c r="C122">
-        <v>0.01118861511349678</v>
+        <v>0.08380365371704102</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B123">
         <v>17</v>
       </c>
       <c r="C123">
-        <v>0.0003771283663809299</v>
+        <v>0.05635084956884384</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B124">
         <v>18</v>
       </c>
       <c r="C124">
-        <v>0.0004041261272504926</v>
+        <v>0.06491677463054657</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B125">
         <v>19</v>
       </c>
       <c r="C125">
-        <v>0.0004605304857250303</v>
+        <v>0.03761470317840576</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B126">
         <v>20</v>
       </c>
       <c r="C126">
-        <v>0.0004372011753730476</v>
+        <v>0.005896675400435925</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B127">
         <v>21</v>
       </c>
       <c r="C127">
-        <v>0.0004282481968402863</v>
+        <v>0.0004780139133799821</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B128">
         <v>22</v>
       </c>
       <c r="C128">
-        <v>0.0004200390249025077</v>
+        <v>0.0004553497128654271</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B129">
         <v>23</v>
       </c>
       <c r="C129">
-        <v>0.0004186586302239448</v>
+        <v>0.0004406121151987463</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>0.000435493333498016</v>
+        <v>0.0003910760569851846</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0.0004518675268627703</v>
+        <v>0.0003910760569851846</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132">
-        <v>0.0004532068269327283</v>
+        <v>0.0003850598877761513</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>0.0004532068269327283</v>
+        <v>0.0003850598877761513</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>0.0004530069418251514</v>
+        <v>0.0003850598877761513</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>0.003646417055279016</v>
+        <v>0.0003857758420053869</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>0.04499665275216103</v>
+        <v>0.004696615040302277</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
       <c r="C137">
-        <v>0.1089159697294235</v>
+        <v>0.02651374414563179</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B138">
         <v>8</v>
       </c>
       <c r="C138">
-        <v>0.1636475622653961</v>
+        <v>0.04803109914064407</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B139">
         <v>9</v>
       </c>
       <c r="C139">
-        <v>0.1572417765855789</v>
+        <v>0.07110895216464996</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B140">
         <v>10</v>
       </c>
       <c r="C140">
-        <v>0.1310170739889145</v>
+        <v>0.1032646372914314</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B141">
         <v>11</v>
       </c>
       <c r="C141">
-        <v>0.1479070037603378</v>
+        <v>0.1207253560423851</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
       <c r="C142">
-        <v>0.1277478784322739</v>
+        <v>0.1400802284479141</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B143">
         <v>13</v>
       </c>
       <c r="C143">
-        <v>0.1227148175239563</v>
+        <v>0.1542455554008484</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B144">
         <v>14</v>
       </c>
       <c r="C144">
-        <v>0.09862144291400909</v>
+        <v>0.1406671702861786</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B145">
         <v>15</v>
       </c>
       <c r="C145">
-        <v>0.05419508367776871</v>
+        <v>0.1099539995193481</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B146">
         <v>16</v>
       </c>
       <c r="C146">
-        <v>0.0191302765160799</v>
+        <v>0.08007349073886871</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B147">
         <v>17</v>
       </c>
       <c r="C147">
-        <v>0.001845262246206403</v>
+        <v>0.06038789078593254</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B148">
         <v>18</v>
       </c>
       <c r="C148">
-        <v>0.000421370699768886</v>
+        <v>0.07109563052654266</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B149">
         <v>19</v>
       </c>
       <c r="C149">
-        <v>0.0004384045314509422</v>
+        <v>0.05031373724341393</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B150">
         <v>20</v>
       </c>
       <c r="C150">
-        <v>0.0004206909507047385</v>
+        <v>0.01252718735486269</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B151">
         <v>21</v>
       </c>
       <c r="C151">
-        <v>0.0004206909507047385</v>
+        <v>0.00045529127237387</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B152">
         <v>22</v>
       </c>
       <c r="C152">
-        <v>0.0004206909507047385</v>
+        <v>0.0004405536747071892</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B153">
         <v>23</v>
       </c>
       <c r="C153">
-        <v>0.0004206909507047385</v>
+        <v>0.0004406121151987463</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>0.0004328868526499718</v>
+        <v>0.0003910760569851846</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>0.0004328868526499718</v>
+        <v>0.0003910760569851846</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156">
-        <v>0.0004328284121584147</v>
+        <v>0.0003850598877761513</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>0.0004581829125527292</v>
+        <v>0.0003850014472845942</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>0.0004587204894050956</v>
+        <v>0.0003863316087517887</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>0.002530447440221906</v>
+        <v>0.0003863316087517887</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>0.02698663994669914</v>
+        <v>0.006411152891814709</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B161">
         <v>7</v>
       </c>
       <c r="C161">
-        <v>0.06982547789812088</v>
+        <v>0.0364324115216732</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B162">
         <v>8</v>
       </c>
       <c r="C162">
-        <v>0.09363814443349838</v>
+        <v>0.07233946025371552</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B163">
         <v>9</v>
       </c>
       <c r="C163">
-        <v>0.1143270283937454</v>
+        <v>0.1088213995099068</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B164">
         <v>10</v>
       </c>
       <c r="C164">
-        <v>0.1222199648618698</v>
+        <v>0.1334179043769836</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B165">
         <v>11</v>
       </c>
       <c r="C165">
-        <v>0.1467051953077316</v>
+        <v>0.1468474715948105</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B166">
         <v>12</v>
       </c>
       <c r="C166">
-        <v>0.1322504281997681</v>
+        <v>0.1697923392057419</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B167">
         <v>13</v>
       </c>
       <c r="C167">
-        <v>0.1279023736715317</v>
+        <v>0.1733802556991577</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B168">
         <v>14</v>
       </c>
       <c r="C168">
-        <v>0.08895400166511536</v>
+        <v>0.1599948555231094</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B169">
         <v>15</v>
       </c>
       <c r="C169">
-        <v>0.04553545638918877</v>
+        <v>0.131711557507515</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B170">
         <v>16</v>
       </c>
       <c r="C170">
-        <v>0.01985670998692513</v>
+        <v>0.1129407435655594</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_FNC.xlsx
+++ b/Transavia/Production/Results/Results_daily_FNC.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0004505818651523441</v>
+        <v>0.0003166770038660616</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0004496326728258282</v>
+        <v>0.000381835998268798</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.09183134138584137</v>
+        <v>0.2647033631801605</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.06849777698516846</v>
+        <v>0.266840398311615</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.01353317871689796</v>
+        <v>0.2584881484508514</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.0008665602072142065</v>
+        <v>0.2564791738986969</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.0006421605357900262</v>
+        <v>0.1995612531900406</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>0.0006064419285394251</v>
+        <v>0.1592448353767395</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0.0004319149593356997</v>
+        <v>0.08777114003896713</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0.0004326309135649353</v>
+        <v>0.08507899194955826</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>0.0004295688413549215</v>
+        <v>0.06708896905183792</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0.0004344971966929734</v>
+        <v>0.0301528312265873</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0.0004573448968585581</v>
+        <v>0.0004938178462907672</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>0.0004573448968585581</v>
+        <v>0.0005010519525967538</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0.0080243069678545</v>
+        <v>0.0005010519525967538</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06417788565158844</v>
+        <v>0.0004515089967753738</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.1390110701322556</v>
+        <v>0.0004515089967753738</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.2061935216188431</v>
+        <v>0.0004632479685824364</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0.2458764165639877</v>
+        <v>0.0004612074408214539</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0.2740662097930908</v>
+        <v>0.0004612074408214539</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.2698849737644196</v>
+        <v>0.0004655683587770909</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0.2598122358322144</v>
+        <v>0.0207060482352972</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0.260152131319046</v>
+        <v>0.08065606653690338</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0.2095416635274887</v>
+        <v>0.1594187766313553</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0.1493516564369202</v>
+        <v>0.210727259516716</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0.1159717589616776</v>
+        <v>0.2564384341239929</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>0.08412500470876694</v>
+        <v>0.2684032917022705</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>0.05997941270470619</v>
+        <v>0.2596568167209625</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>0.007568716537207365</v>
+        <v>0.2385986596345901</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>0.0004265971074346453</v>
+        <v>0.2212577909231186</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>0.0004233172221574932</v>
+        <v>0.1450209468603134</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>0.0004204143479000777</v>
+        <v>0.1494088619947433</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>0.0004461947537492961</v>
+        <v>0.08069544285535812</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>0.0004068352864123881</v>
+        <v>0.08389903604984283</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>0.0004068352864123881</v>
+        <v>0.06917333602905273</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>0.0004297367413528264</v>
+        <v>0.03373371437191963</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>0.0004327175847720355</v>
+        <v>0.0005010519525967538</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>0.0004323418252170086</v>
+        <v>0.0004839403263758868</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>0.006247670389711857</v>
+        <v>0.0004818997404072434</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.04586115479469299</v>
+        <v>0.0004612074408214539</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.09982658177614212</v>
+        <v>0.0004612074408214539</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0.1382285505533218</v>
+        <v>0.0004612074408214539</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0.1637912094593048</v>
+        <v>0.0004760395095217973</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0.1764120310544968</v>
+        <v>0.0004367767251096666</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0.1742341816425323</v>
+        <v>0.0004804003110621125</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>0.1627925932407379</v>
+        <v>0.0208046343177557</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>0.136001780629158</v>
+        <v>0.08630657196044922</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>0.09879820793867111</v>
+        <v>0.162968784570694</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.06991373747587204</v>
+        <v>0.2168054431676865</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>0.04369214177131653</v>
+        <v>0.2621188461780548</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>0.04862212762236595</v>
+        <v>0.2769327163696289</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>0.04035429656505585</v>
+        <v>0.2646105289459229</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>0.005782336462289095</v>
+        <v>0.2555300891399384</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>0.0004553497128654271</v>
+        <v>0.2626480758190155</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>0.0004406121151987463</v>
+        <v>0.2389575392007828</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>0.0004406121151987463</v>
+        <v>0.1881704032421112</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>0.0003910760569851846</v>
+        <v>0.1471237987279892</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>0.0003910760569851846</v>
+        <v>0.08996338397264481</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>0.0003892804961651564</v>
+        <v>0.08404764533042908</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>0.0003910760569851846</v>
+        <v>0.03726476430892944</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>0.0003910760569851846</v>
+        <v>0.0005080626579001546</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>0.0003850598877761513</v>
+        <v>0.0005080626579001546</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C64">
-        <v>0.004411957692354918</v>
+        <v>0.0004853980208281428</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.02644769102334976</v>
+        <v>0.0004821222682949156</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.04399939253926277</v>
+        <v>0.0004821222682949156</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0.0718110054731369</v>
+        <v>0.0004428595129866153</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>0.09645792841911316</v>
+        <v>0.0004368433146737516</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>0.1229462251067162</v>
+        <v>0.0004368433146737516</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>0.1425425559282303</v>
+        <v>0.0004740539588965476</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>0.1448282152414322</v>
+        <v>0.03018261678516865</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>0.1274861544370651</v>
+        <v>0.0969599261879921</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>0.1011743247509003</v>
+        <v>0.1678392738103867</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.07430954277515411</v>
+        <v>0.2172411382198334</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>0.05861507728695869</v>
+        <v>0.2559289038181305</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>0.06006526574492455</v>
+        <v>0.2649329900741577</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>0.04130827262997627</v>
+        <v>0.2608602941036224</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>0.003910234197974205</v>
+        <v>0.2478650212287903</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0.0004406121151987463</v>
+        <v>0.2440677881240845</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>0.0004240487178321928</v>
+        <v>0.2068949192762375</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>0.0004240487178321928</v>
+        <v>0.1515307426452637</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>0.0003910760569851846</v>
+        <v>0.1497070640325546</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>0.0003910176164936274</v>
+        <v>0.09473754465579987</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>0.000392347777960822</v>
+        <v>0.07596242427825928</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>0.0004181733238510787</v>
+        <v>0.02725368179380894</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>0.000412157183745876</v>
+        <v>0.0004424691142048687</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>0.000412157183745876</v>
+        <v>0.000425905833253637</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C88">
-        <v>0.006791734602302313</v>
+        <v>0.0004143496917095035</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.04547402262687683</v>
+        <v>0.0003863316087517887</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>0.1033844798803329</v>
+        <v>0.0003870475629810244</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>0.164261981844902</v>
+        <v>0.0004068352864123881</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>0.2082982510328293</v>
+        <v>0.0004098110657650977</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0.2397402673959732</v>
+        <v>0.0004098110657650977</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>0.2369421273469925</v>
+        <v>0.0004623968561645597</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>0.2276990562677383</v>
+        <v>0.0208691880106926</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>0.2280352413654327</v>
+        <v>0.06976513564586639</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.1472424119710922</v>
+        <v>0.1124875247478485</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>0.1455266624689102</v>
+        <v>0.1505829691886902</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B99">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0.07671526819467545</v>
+        <v>0.1714215725660324</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.07685277611017227</v>
+        <v>0.1904237419366837</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.0480426549911499</v>
+        <v>0.1925479769706726</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>0.01048109866678715</v>
+        <v>0.1952331513166428</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>0.00045529127237387</v>
+        <v>0.201518714427948</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>0.0004424691142048687</v>
+        <v>0.1460090130567551</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>0.0004265971074346453</v>
+        <v>0.1610207408666611</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>0.0004181784170214087</v>
+        <v>0.1222108975052834</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>0.0004181733238510787</v>
+        <v>0.09224478155374527</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>0.000412157183745876</v>
+        <v>0.0755002498626709</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>0.00041241614962928</v>
+        <v>0.03075115196406841</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C110">
-        <v>0.0004159286327194422</v>
+        <v>0.0005009447340853512</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>0.0004166445869486779</v>
+        <v>0.0004782800388056785</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C112">
-        <v>0.009322952479124069</v>
+        <v>0.0004633906064555049</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.05729316547513008</v>
+        <v>0.0004181733238510787</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>0.1225562915205956</v>
+        <v>0.0004181733238510787</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>0.1718598455190659</v>
+        <v>0.000412157183745876</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>0.2054253071546555</v>
+        <v>0.000412157183745876</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>0.2294715940952301</v>
+        <v>0.000412157183745876</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>0.2178615033626556</v>
+        <v>0.0004433298308867961</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>0.1954184025526047</v>
+        <v>0.02094824239611626</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>0.1610527485609055</v>
+        <v>0.0719345286488533</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>0.1226738467812538</v>
+        <v>0.117729440331459</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>0.08380365371704102</v>
+        <v>0.1568813472986221</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>0.05635084956884384</v>
+        <v>0.1834015250205994</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>0.06491677463054657</v>
+        <v>0.1923294514417648</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>0.03761470317840576</v>
+        <v>0.1947290599346161</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0.005896675400435925</v>
+        <v>0.1844355463981628</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B127">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>0.0004780139133799821</v>
+        <v>0.1649096459150314</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B128">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>0.0004553497128654271</v>
+        <v>0.129748210310936</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>0.0004406121151987463</v>
+        <v>0.08329585939645767</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>0.0003910760569851846</v>
+        <v>0.0594961941242218</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>0.0003910760569851846</v>
+        <v>0.0689881443977356</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>0.0003850598877761513</v>
+        <v>0.05648185685276985</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>0.0003850598877761513</v>
+        <v>0.03096947073936462</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C134">
-        <v>0.0003850598877761513</v>
+        <v>0.0004780139133799821</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>0.0003857758420053869</v>
+        <v>0.0004553497128654271</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C136">
-        <v>0.004696615040302277</v>
+        <v>0.0004406121151987463</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.02651374414563179</v>
+        <v>0.0004302799352444708</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>0.04803109914064407</v>
+        <v>0.0003910176164936274</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>0.07110895216464996</v>
+        <v>0.0003910176164936274</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>0.1032646372914314</v>
+        <v>0.000392347777960822</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>0.1207253560423851</v>
+        <v>0.000392347777960822</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>0.1400802284479141</v>
+        <v>0.0004289404314476997</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>0.1542455554008484</v>
+        <v>0.01746624521911144</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>0.1406671702861786</v>
+        <v>0.05452887341380119</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B145">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>0.1099539995193481</v>
+        <v>0.09558945149183273</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B146">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>0.08007349073886871</v>
+        <v>0.134058877825737</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B147">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>0.06038789078593254</v>
+        <v>0.1663952618837357</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B148">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>0.07109563052654266</v>
+        <v>0.1865638345479965</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>0.05031373724341393</v>
+        <v>0.1982807070016861</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>0.01252718735486269</v>
+        <v>0.1945082694292068</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B151">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>0.00045529127237387</v>
+        <v>0.1888526380062103</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B152">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>0.0004405536747071892</v>
+        <v>0.1435130536556244</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B153">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>0.0004406121151987463</v>
+        <v>0.1423538029193878</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>0.0003910760569851846</v>
+        <v>0.07313527166843414</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>0.0003910760569851846</v>
+        <v>0.07179760932922363</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C156">
-        <v>0.0003850598877761513</v>
+        <v>0.05816401541233063</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>0.0003850014472845942</v>
+        <v>0.0291716456413269</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C158">
-        <v>0.0003863316087517887</v>
+        <v>0.0004759631992783397</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C159">
-        <v>0.0003863316087517887</v>
+        <v>0.0004798709705937654</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>0.006411152891814709</v>
+        <v>0.0004642588319256902</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.0364324115216732</v>
+        <v>0.0004845719959121197</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>0.07233946025371552</v>
+        <v>0.0004574410850182176</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>0.1088213995099068</v>
+        <v>0.0004570653254631907</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>0.1334179043769836</v>
+        <v>0.0004574359918478876</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>0.1468474715948105</v>
+        <v>0.0004181733238510787</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>0.1697923392057419</v>
+        <v>0.0004671189817599952</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B167">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>0.1733802556991577</v>
+        <v>0.02048694156110287</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B168">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>0.1599948555231094</v>
+        <v>0.06823242455720901</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B169">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>0.131711557507515</v>
+        <v>0.1314908713102341</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B170">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>0.1129407435655594</v>
+        <v>0.1737885922193527</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_FNC.xlsx
+++ b/Transavia/Production/Results/Results_daily_FNC.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.0003166770038660616</v>
+        <v>-0.0005240961909294128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.000381835998268798</v>
+        <v>6.345965812215582E-05</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.2647033631801605</v>
+        <v>0.2079332172870636</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.266840398311615</v>
+        <v>0.2475559115409851</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.2584881484508514</v>
+        <v>0.2605636119842529</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.2564791738986969</v>
+        <v>0.2607706189155579</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1995612531900406</v>
+        <v>0.2520570158958435</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.1592448353767395</v>
+        <v>0.2540232539176941</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>0.08777114003896713</v>
+        <v>0.2243278622627258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.08507899194955826</v>
+        <v>0.190310150384903</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.06708896905183792</v>
+        <v>0.1531371176242828</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.0301528312265873</v>
+        <v>0.08895289897918701</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>0.0004938178462907672</v>
+        <v>0.08416400104761124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.0005010519525967538</v>
+        <v>0.03963262587785721</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>0.0005010519525967538</v>
+        <v>0.0005010120221413672</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>0.0004515089967753738</v>
+        <v>0.0004518298665061593</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>0.0004515089967753738</v>
+        <v>0.0004513387102633715</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0004632479685824364</v>
+        <v>0.000469619466457516</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.0004612074408214539</v>
+        <v>0.0004745478508993983</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>0.0004612074408214539</v>
+        <v>0.0004632851632777601</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0.0004655683587770909</v>
+        <v>0.0004632851632777601</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0.0207060482352972</v>
+        <v>0.0004632851632777601</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0.08065606653690338</v>
+        <v>0.0009490753291174769</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>0.1594187766313553</v>
+        <v>0.02877067029476166</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>0.210727259516716</v>
+        <v>0.09030617773532867</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>0.2564384341239929</v>
+        <v>0.1590303629636765</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>0.2684032917022705</v>
+        <v>0.2072907239198685</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>0.2596568167209625</v>
+        <v>0.246887594461441</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>0.2385986596345901</v>
+        <v>0.258190393447876</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>0.2212577909231186</v>
+        <v>0.2613814771175385</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>0.1450209468603134</v>
+        <v>0.2542533278465271</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>0.1494088619947433</v>
+        <v>0.2559188604354858</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>0.08069544285535812</v>
+        <v>0.2318519353866577</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>0.08389903604984283</v>
+        <v>0.1913979053497314</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>0.06917333602905273</v>
+        <v>0.152772068977356</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.03373371437191963</v>
+        <v>0.08739995956420898</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>0.0005010519525967538</v>
+        <v>0.08388379216194153</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>0.0004839403263758868</v>
+        <v>0.03910167887806892</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>0.0004818997404072434</v>
+        <v>0.0004954311298206449</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>0.0004612074408214539</v>
+        <v>0.0004558830987662077</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>0.0004612074408214539</v>
+        <v>0.0004600957618094981</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.0004612074408214539</v>
+        <v>0.0005662295734509826</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.0004760395095217973</v>
+        <v>0.0004940759390592575</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>0.0004367767251096666</v>
+        <v>0.0004940759390592575</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>0.0004804003110621125</v>
+        <v>0.0004940759390592575</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0.0208046343177557</v>
+        <v>0.0004940759390592575</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>0.08630657196044922</v>
+        <v>0.0008096412639133632</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>0.162968784570694</v>
+        <v>0.02015712857246399</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>0.2168054431676865</v>
+        <v>0.07887716591358185</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>0.2621188461780548</v>
+        <v>0.1449293345212936</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>0.2769327163696289</v>
+        <v>0.1983492225408554</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>0.2646105289459229</v>
+        <v>0.2386391162872314</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>0.2555300891399384</v>
+        <v>0.2529033124446869</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>0.2626480758190155</v>
+        <v>0.25665283203125</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>0.2389575392007828</v>
+        <v>0.244912713766098</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>0.1881704032421112</v>
+        <v>0.2350410670042038</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>0.1471237987279892</v>
+        <v>0.1961758583784103</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>0.08996338397264481</v>
+        <v>0.1511636823415756</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>0.08404764533042908</v>
+        <v>0.1342276185750961</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>0.03726476430892944</v>
+        <v>0.08592282980680466</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>0.0005080626579001546</v>
+        <v>0.0797356590628624</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>0.0005080626579001546</v>
+        <v>0.03974581882357597</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>0.0004853980208281428</v>
+        <v>0.0005294894217513502</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>0.0004821222682949156</v>
+        <v>0.0004518298665061593</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>0.0004821222682949156</v>
+        <v>0.0004518298665061593</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.0004428595129866153</v>
+        <v>0.000468465150333941</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>0.0004368433146737516</v>
+        <v>0.000468465150333941</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>0.0004368433146737516</v>
+        <v>0.000468465150333941</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>0.0004740539588965476</v>
+        <v>0.0004572024627123028</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>0.03018261678516865</v>
+        <v>0.0004572024627123028</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>0.0969599261879921</v>
+        <v>0.000816411105915904</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>0.1678392738103867</v>
+        <v>0.02743416465818882</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>0.2172411382198334</v>
+        <v>0.08345706015825272</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>0.2559289038181305</v>
+        <v>0.1550143510103226</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>0.2649329900741577</v>
+        <v>0.2059094160795212</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>0.2608602941036224</v>
+        <v>0.2405045479536057</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>0.2478650212287903</v>
+        <v>0.2544592022895813</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>0.2440677881240845</v>
+        <v>0.2576538324356079</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>0.2068949192762375</v>
+        <v>0.2496923804283142</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>0.1515307426452637</v>
+        <v>0.2520151138305664</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>0.1497070640325546</v>
+        <v>0.222596287727356</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>0.09473754465579987</v>
+        <v>0.1845885664224625</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>0.07596242427825928</v>
+        <v>0.1458504199981689</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>0.02725368179380894</v>
+        <v>0.08938496559858322</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>0.0004424691142048687</v>
+        <v>0.0758863165974617</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>0.000425905833253637</v>
+        <v>0.03856369853019714</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>0.0004143496917095035</v>
+        <v>0.000456628215033561</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C89">
-        <v>0.0003863316087517887</v>
+        <v>0.0004545147530734539</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>0.0003870475629810244</v>
+        <v>0.0004558830987662077</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.0004068352864123881</v>
+        <v>0.0004497619229368865</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>0.0004098110657650977</v>
+        <v>0.0005662295734509826</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>0.0004098110657650977</v>
+        <v>0.0004940759390592575</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>0.0004623968561645597</v>
+        <v>0.0004952303133904934</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>0.0208691880106926</v>
+        <v>0.0005001586396247149</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>0.06976513564586639</v>
+        <v>0.0008166970801539719</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>0.1124875247478485</v>
+        <v>0.02857869677245617</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>0.1505829691886902</v>
+        <v>0.08258718252182007</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>0.1714215725660324</v>
+        <v>0.1448525637388229</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>0.1904237419366837</v>
+        <v>0.2022746652364731</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>0.1925479769706726</v>
+        <v>0.2386443465948105</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>0.1952331513166428</v>
+        <v>0.2516333162784576</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103">
-        <v>0.201518714427948</v>
+        <v>0.2561880946159363</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104">
-        <v>0.1460090130567551</v>
+        <v>0.2499094754457474</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>0.1610207408666611</v>
+        <v>0.2517266869544983</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>0.1222108975052834</v>
+        <v>0.219311460852623</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>0.09224478155374527</v>
+        <v>0.1536345928907394</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>0.0755002498626709</v>
+        <v>0.1412010788917542</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>0.03075115196406841</v>
+        <v>0.07978390157222748</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C110">
-        <v>0.0005009447340853512</v>
+        <v>0.05535764247179031</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>0.0004782800388056785</v>
+        <v>0.02903974428772926</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C112">
-        <v>0.0004633906064555049</v>
+        <v>0.0004082564846612513</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C113">
-        <v>0.0004181733238510787</v>
+        <v>0.000405774888349697</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C114">
-        <v>0.0004181733238510787</v>
+        <v>0.0004009802651125938</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0.000412157183745876</v>
+        <v>0.0004899338237009943</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>0.000412157183745876</v>
+        <v>0.0004649526381399482</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>0.000412157183745876</v>
+        <v>0.000468465150333941</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>0.0004433298308867961</v>
+        <v>0.0004745478508993983</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>0.02094824239611626</v>
+        <v>0.0004745478508993983</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>0.0719345286488533</v>
+        <v>0.0007989731384441257</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>0.117729440331459</v>
+        <v>0.0278098750859499</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>0.1568813472986221</v>
+        <v>0.08157746493816376</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>0.1834015250205994</v>
+        <v>0.144289568066597</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>0.1923294514417648</v>
+        <v>0.2013216465711594</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>0.1947290599346161</v>
+        <v>0.2387142032384872</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126">
-        <v>0.1844355463981628</v>
+        <v>0.2534489333629608</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>0.1649096459150314</v>
+        <v>0.2519713044166565</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C128">
-        <v>0.129748210310936</v>
+        <v>0.2283103913068771</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>0.08329585939645767</v>
+        <v>0.1977380961179733</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>0.0594961941242218</v>
+        <v>0.1346264481544495</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131">
-        <v>0.0689881443977356</v>
+        <v>0.1373854279518127</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C132">
-        <v>0.05648185685276985</v>
+        <v>0.06616532057523727</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C133">
-        <v>0.03096947073936462</v>
+        <v>0.06819391250610352</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134">
-        <v>0.0004780139133799821</v>
+        <v>0.06018002331256866</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C135">
-        <v>0.0004553497128654271</v>
+        <v>0.03134747594594955</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C136">
-        <v>0.0004406121151987463</v>
+        <v>0.0004042032524012029</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C137">
-        <v>0.0004302799352444708</v>
+        <v>0.0004324259061831981</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C138">
-        <v>0.0003910176164936274</v>
+        <v>0.0004324259061831981</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0.0003910176164936274</v>
+        <v>0.0004538533976301551</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>0.000392347777960822</v>
+        <v>0.0004643230058718473</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>0.000392347777960822</v>
+        <v>0.0004649526381399482</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>0.0004289404314476997</v>
+        <v>0.0004705056198872626</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>0.01746624521911144</v>
+        <v>0.000468465150333941</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.05452887341380119</v>
+        <v>0.0008096412639133632</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>0.09558945149183273</v>
+        <v>0.02016362175345421</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C146">
-        <v>0.134058877825737</v>
+        <v>0.07838119566440582</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>0.1663952618837357</v>
+        <v>0.1445967257022858</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>0.1865638345479965</v>
+        <v>0.2014700174331665</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149">
-        <v>0.1982807070016861</v>
+        <v>0.2390224039554596</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150">
-        <v>0.1945082694292068</v>
+        <v>0.2541035413742065</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C151">
-        <v>0.1888526380062103</v>
+        <v>0.2566922605037689</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C152">
-        <v>0.1435130536556244</v>
+        <v>0.2494501024484634</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>0.1423538029193878</v>
+        <v>0.2519794404506683</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>0.07313527166843414</v>
+        <v>0.2228254675865173</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C155">
-        <v>0.07179760932922363</v>
+        <v>0.1854606419801712</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156">
-        <v>0.05816401541233063</v>
+        <v>0.1456475108861923</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>0.0291716456413269</v>
+        <v>0.08966466784477234</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>0.0004759631992783397</v>
+        <v>0.08015736937522888</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C159">
-        <v>0.0004798709705937654</v>
+        <v>0.03942032530903816</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C160">
-        <v>0.0004642588319256902</v>
+        <v>0.0004967994173057377</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C161">
-        <v>0.0004845719959121197</v>
+        <v>0.0004621362895704806</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C162">
-        <v>0.0004574410850182176</v>
+        <v>0.0004483174125198275</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>0.0004570653254631907</v>
+        <v>0.0004705056198872626</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>0.0004574359918478876</v>
+        <v>0.000468465150333941</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>0.0004181733238510787</v>
+        <v>0.000468465150333941</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>0.0004671189817599952</v>
+        <v>0.000468465150333941</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>0.02048694156110287</v>
+        <v>0.000468465150333941</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>0.06823242455720901</v>
+        <v>0.0008096412639133632</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>0.1314908713102341</v>
+        <v>0.02507463283836842</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170">
-        <v>0.1737885922193527</v>
+        <v>0.08152242749929428</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_FNC.xlsx
+++ b/Transavia/Production/Results/Results_daily_FNC.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>-0.0005240961909294128</v>
+        <v>0.0009546305518597364</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>6.345965812215582E-05</v>
+        <v>0.000960302131716162</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.2079332172870636</v>
+        <v>0.1987825632095337</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.2475559115409851</v>
+        <v>0.1830869913101196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.2605636119842529</v>
+        <v>0.1543733924627304</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.2607706189155579</v>
+        <v>0.1117456182837486</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.2520570158958435</v>
+        <v>0.08057012408971786</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.2540232539176941</v>
+        <v>0.06160228326916695</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.2243278622627258</v>
+        <v>0.0656975656747818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.190310150384903</v>
+        <v>0.05189396068453789</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.1531371176242828</v>
+        <v>0.01904448494315147</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.08895289897918701</v>
+        <v>0.0003507001383695751</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.08416400104761124</v>
+        <v>0.0003880508302245289</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.03963262587785721</v>
+        <v>0.0003894191759172827</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0005010120221413672</v>
+        <v>0.0004405273066367954</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.0004518298665061593</v>
+        <v>0.000400847289711237</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.0004513387102633715</v>
+        <v>0.0004477403999771923</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.000469619466457516</v>
+        <v>0.000458209979115054</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.0004745478508993983</v>
+        <v>0.0004579626547638327</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.0004632851632777601</v>
+        <v>0.0004467000253498554</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.0004632851632777601</v>
+        <v>0.005874273832887411</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.0004632851632777601</v>
+        <v>0.03928386047482491</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.0009490753291174769</v>
+        <v>0.08789552748203278</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.02877067029476166</v>
+        <v>0.1356943845748901</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.09030617773532867</v>
+        <v>0.1667458266019821</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.1590303629636765</v>
+        <v>0.1868617087602615</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.2072907239198685</v>
+        <v>0.1959209442138672</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.246887594461441</v>
+        <v>0.191871166229248</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0.258190393447876</v>
+        <v>0.1783109158277512</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.2613814771175385</v>
+        <v>0.1426061242818832</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.2542533278465271</v>
+        <v>0.1561984270811081</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.2559188604354858</v>
+        <v>0.09235021471977234</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0.2318519353866577</v>
+        <v>0.07532115280628204</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0.1913979053497314</v>
+        <v>0.06249821558594704</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0.152772068977356</v>
+        <v>0.01988259516656399</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.08739995956420898</v>
+        <v>0.0004444401129148901</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.08388379216194153</v>
+        <v>0.0004431691486388445</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.03910167887806892</v>
+        <v>0.0004431691486388445</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.0004954311298206449</v>
+        <v>0.0004504714743234217</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.0004558830987662077</v>
+        <v>0.0004501834628172219</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.0004600957618094981</v>
+        <v>0.0004606742586474866</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.0005662295734509826</v>
+        <v>0.0004411663103383034</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.0004940759390592575</v>
+        <v>0.0004382586048450321</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.0004940759390592575</v>
+        <v>0.0004384212661534548</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.0004940759390592575</v>
+        <v>0.003207658650353551</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.0004940759390592575</v>
+        <v>0.02387681603431702</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.0008096412639133632</v>
+        <v>0.05753624439239502</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.02015712857246399</v>
+        <v>0.09224161505699158</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.07887716591358185</v>
+        <v>0.1283904761075974</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.1449293345212936</v>
+        <v>0.16131991147995</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.1983492225408554</v>
+        <v>0.1690518707036972</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>0.2386391162872314</v>
+        <v>0.1676821559667587</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>0.2529033124446869</v>
+        <v>0.1514524221420288</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>0.25665283203125</v>
+        <v>0.1206114366650581</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>0.244912713766098</v>
+        <v>0.1049866452813148</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0.2350410670042038</v>
+        <v>0.06651263684034348</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0.1961758583784103</v>
+        <v>0.07007960230112076</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0.1511636823415756</v>
+        <v>0.05674628168344498</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0.1342276185750961</v>
+        <v>0.016185212880373</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.08592282980680466</v>
+        <v>0.0004210580373182893</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.0797356590628624</v>
+        <v>0.0004242537543177605</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.03974581882357597</v>
+        <v>0.000429541600169614</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.0005294894217513502</v>
+        <v>0.0004314059624448419</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.0004518298665061593</v>
+        <v>0.0004305546754039824</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.0004518298665061593</v>
+        <v>0.0004303321184124798</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>0.000468465150333941</v>
+        <v>0.0004254296363797039</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0.000468465150333941</v>
+        <v>0.0004470350977499038</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.000468465150333941</v>
+        <v>0.0004501834628172219</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.0004572024627123028</v>
+        <v>0.006196849979460239</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>0.0004572024627123028</v>
+        <v>0.04720933735370636</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.000816411105915904</v>
+        <v>0.1155104041099548</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.02743416465818882</v>
+        <v>0.1701688468456268</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.08345706015825272</v>
+        <v>0.2149437814950943</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.1550143510103226</v>
+        <v>0.2361921817064285</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.2059094160795212</v>
+        <v>0.2396695911884308</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>0.2405045479536057</v>
+        <v>0.2213072627782822</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>0.2544592022895813</v>
+        <v>0.1984246820211411</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>0.2576538324356079</v>
+        <v>0.138962984085083</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.2496923804283142</v>
+        <v>0.1394824534654617</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0.2520151138305664</v>
+        <v>0.06705965101718903</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0.222596287727356</v>
+        <v>0.06695967167615891</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>0.1845885664224625</v>
+        <v>0.03984476998448372</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0.1458504199981689</v>
+        <v>0.01385465171188116</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>0.08938496559858322</v>
+        <v>0.0004262205911800265</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>0.0758863165974617</v>
+        <v>0.0004355370765551925</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>0.03856369853019714</v>
+        <v>0.0004344632907304913</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.000456628215033561</v>
+        <v>0.0004317259590607136</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B89">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.0004545147530734539</v>
+        <v>0.0004319733416195959</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.0004558830987662077</v>
+        <v>0.0004275128012523055</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.0004497619229368865</v>
+        <v>0.0004253627266734838</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.0005662295734509826</v>
+        <v>0.0004392033733893186</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.0004940759390592575</v>
+        <v>0.0004382586048450321</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.0004952303133904934</v>
+        <v>0.00433787377551198</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0.0005001586396247149</v>
+        <v>0.03231107071042061</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.0008166970801539719</v>
+        <v>0.0770585685968399</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.02857869677245617</v>
+        <v>0.1357671320438385</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.08258718252182007</v>
+        <v>0.1880118846893311</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.1448525637388229</v>
+        <v>0.214287668466568</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.2022746652364731</v>
+        <v>0.2125655114650726</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>0.2386443465948105</v>
+        <v>0.1960237175226212</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>0.2516333162784576</v>
+        <v>0.157135546207428</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>0.2561880946159363</v>
+        <v>0.1274169236421585</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>0.2499094754457474</v>
+        <v>0.1397425085306168</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0.2517266869544983</v>
+        <v>0.08341674506664276</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0.219311460852623</v>
+        <v>0.07867149263620377</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.1536345928907394</v>
+        <v>0.05906679481267929</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>0.1412010788917542</v>
+        <v>0.01985200121998787</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>0.07978390157222748</v>
+        <v>0.0004393976996652782</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>0.05535764247179031</v>
+        <v>0.0004435696755535901</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>0.02903974428772926</v>
+        <v>0.0004432815476320684</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B112">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.0004082564846612513</v>
+        <v>0.0004466593381948769</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.000405774888349697</v>
+        <v>0.0004604152927640826</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.0004009802651125938</v>
+        <v>0.0004606742586474866</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.0004899338237009943</v>
+        <v>0.0004683499573729932</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.0004649526381399482</v>
+        <v>0.0004663094296120107</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>0.000468465150333941</v>
+        <v>0.0004663094296120107</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.0004745478508993983</v>
+        <v>0.006495105568319559</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>0.0004745478508993983</v>
+        <v>0.0516415573656559</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.0007989731384441257</v>
+        <v>0.1155748218297958</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.0278098750859499</v>
+        <v>0.171139657497406</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.08157746493816376</v>
+        <v>0.2148825228214264</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.144289568066597</v>
+        <v>0.2411948144435883</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.2013216465711594</v>
+        <v>0.2484258562326431</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>0.2387142032384872</v>
+        <v>0.2462614625692368</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>0.2534489333629608</v>
+        <v>0.2438932657241821</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>0.2519713044166565</v>
+        <v>0.1980654150247574</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>0.2283103913068771</v>
+        <v>0.1537093222141266</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0.1977380961179733</v>
+        <v>0.1313507556915283</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>0.1346264481544495</v>
+        <v>0.08981816470623016</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0.1373854279518127</v>
+        <v>0.06410754472017288</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B132">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>0.06616532057523727</v>
+        <v>0.01864873245358467</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B133">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>0.06819391250610352</v>
+        <v>0.0004444401129148901</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B134">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>0.06018002331256866</v>
+        <v>0.00044061808148399</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>0.03134747594594955</v>
+        <v>0.0004396566655486822</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B136">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.0004042032524012029</v>
+        <v>0.0004582216206472367</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B137">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.0004324259061831981</v>
+        <v>0.0004582216206472367</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B138">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.0004324259061831981</v>
+        <v>0.0004582216206472367</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>0.0004538533976301551</v>
+        <v>0.0004469589912332594</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>0.0004643230058718473</v>
+        <v>0.0004504714743234217</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.0004649526381399482</v>
+        <v>0.0004501834628172219</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>0.0004705056198872626</v>
+        <v>0.004348815884441137</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>0.000468465150333941</v>
+        <v>0.04317576438188553</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.0008096412639133632</v>
+        <v>0.1025492548942566</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.02016362175345421</v>
+        <v>0.1651033610105515</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.07838119566440582</v>
+        <v>0.2143077552318573</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.1445967257022858</v>
+        <v>0.2352073937654495</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.2014700174331665</v>
+        <v>0.2447957396507263</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>0.2390224039554596</v>
+        <v>0.2438805401325226</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>0.2541035413742065</v>
+        <v>0.2400947660207748</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>0.2566922605037689</v>
+        <v>0.1975916475057602</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B152">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>0.2494501024484634</v>
+        <v>0.1531627476215363</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B153">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0.2519794404506683</v>
+        <v>0.1338415145874023</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B154">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>0.2228254675865173</v>
+        <v>0.08652334660291672</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>0.1854606419801712</v>
+        <v>0.06876406818628311</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B156">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>0.1456475108861923</v>
+        <v>0.02290823496878147</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B157">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>0.08966466784477234</v>
+        <v>0.0004085181280970573</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B158">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.08015736937522888</v>
+        <v>0.0004458689072635025</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.03942032530903816</v>
+        <v>0.0004472372529562563</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B160">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.0004967994173057377</v>
+        <v>0.0005121479625813663</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B161">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.0004621362895704806</v>
+        <v>0.0004724680329672992</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.0004483174125198275</v>
+        <v>0.0004724680329672992</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.0004705056198872626</v>
+        <v>0.000461734103737399</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.000468465150333941</v>
+        <v>0.000461734103737399</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.000468465150333941</v>
+        <v>0.000461734103737399</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.000468465150333941</v>
+        <v>0.004361249972134829</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0.000468465150333941</v>
+        <v>0.04531674832105637</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.0008096412639133632</v>
+        <v>0.102775938808918</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.02507463283836842</v>
+        <v>0.1652993857860565</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.08152242749929428</v>
+        <v>0.2136136144399643</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_FNC.xlsx
+++ b/Transavia/Production/Results/Results_daily_FNC.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0.0009546305518597364</v>
+        <v>0.001101893722079694</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>0.000960302131716162</v>
+        <v>0.001125045120716095</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.1987825632095337</v>
+        <v>0.001053132931701839</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0.1830869913101196</v>
+        <v>0.2133978307247162</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.1543733924627304</v>
+        <v>0.2410435527563095</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.1117456182837486</v>
+        <v>0.2430550754070282</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>0.08057012408971786</v>
+        <v>0.2290327548980713</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.06160228326916695</v>
+        <v>0.1959308683872223</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0.0656975656747818</v>
+        <v>0.1535196453332901</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.05189396068453789</v>
+        <v>0.1362056136131287</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.01904448494315147</v>
+        <v>0.08930245786905289</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>0.0003507001383695751</v>
+        <v>0.07777398824691772</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0003880508302245289</v>
+        <v>0.006587047595530748</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.0003894191759172827</v>
+        <v>0.0004663852159865201</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0.0004405273066367954</v>
+        <v>0.000461734103737399</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.000400847289711237</v>
+        <v>0.000461734103737399</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>0.0004477403999771923</v>
+        <v>0.000461734103737399</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.000458209979115054</v>
+        <v>0.000461734103737399</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0.0004579626547638327</v>
+        <v>0.0003562202327884734</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0.0004467000253498554</v>
+        <v>0.0002987956104334444</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0.005874273832887411</v>
+        <v>0.0006359553663060069</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0.03928386047482491</v>
+        <v>0.0008794368477538228</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0.08789552748203278</v>
+        <v>0.006779152899980545</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>0.1356943845748901</v>
+        <v>0.04566772654652596</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0.1667458266019821</v>
+        <v>0.1043477207422256</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>0.1868617087602615</v>
+        <v>0.1526715457439423</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0.1959209442138672</v>
+        <v>0.1749730110168457</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>0.191871166229248</v>
+        <v>0.2028751224279404</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>0.1783109158277512</v>
+        <v>0.2364920526742935</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>0.1426061242818832</v>
+        <v>0.2410456091165543</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0.1561984270811081</v>
+        <v>0.2285138517618179</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0.09235021471977234</v>
+        <v>0.1889411956071854</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>0.07532115280628204</v>
+        <v>0.1565467119216919</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>0.06249821558594704</v>
+        <v>0.1155237182974815</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>0.01988259516656399</v>
+        <v>0.0857742577791214</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>0.0004444401129148901</v>
+        <v>0.05928518623113632</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.0004431691486388445</v>
+        <v>0.006153710652142763</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.0004431691486388445</v>
+        <v>0.0004593834455590695</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>0.0004504714743234217</v>
+        <v>0.0003895979607477784</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.0004501834628172219</v>
+        <v>0.0003895979607477784</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.0004606742586474866</v>
+        <v>0.0005060653784312308</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.0004411663103383034</v>
+        <v>0.0004628727037925273</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0.0004382586048450321</v>
+        <v>0.0003515176940709352</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.0004384212661534548</v>
+        <v>0.0002162971504731104</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.003207658650353551</v>
+        <v>0.0003782323619816452</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.02387681603431702</v>
+        <v>0.000462972471723333</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0.05753624439239502</v>
+        <v>0.002579928608611226</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>0.09224161505699158</v>
+        <v>0.02749068662524223</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>0.1283904761075974</v>
+        <v>0.06218847259879112</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>0.16131991147995</v>
+        <v>0.1050834655761719</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>0.1690518707036972</v>
+        <v>0.1288692057132721</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>0.1676821559667587</v>
+        <v>0.1308488249778748</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>0.1514524221420288</v>
+        <v>0.1483526676893234</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>0.1206114366650581</v>
+        <v>0.1468760520219803</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>0.1049866452813148</v>
+        <v>0.1478120535612106</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>0.06651263684034348</v>
+        <v>0.1510741859674454</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>0.07007960230112076</v>
+        <v>0.1313478201627731</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>0.05674628168344498</v>
+        <v>0.08754505962133408</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>0.016185212880373</v>
+        <v>0.07455510646104813</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>0.0004210580373182893</v>
+        <v>0.05100706964731216</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.0004242537543177605</v>
+        <v>0.004492712672799826</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.000429541600169614</v>
+        <v>0.0003247513086535037</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>0.0004314059624448419</v>
+        <v>0.0004405273066367954</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.0004305546754039824</v>
+        <v>0.000400847289711237</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>0.0004303321184124798</v>
+        <v>0.0004316038393881172</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>0.0004254296363797039</v>
+        <v>0.0004316038393881172</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.0004470350977499038</v>
+        <v>0.0003373526269569993</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>0.0004501834628172219</v>
+        <v>0.0001601613330421969</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0.006196849979460239</v>
+        <v>0.0003077563887927681</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.04720933735370636</v>
+        <v>0.0007315786206163466</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.1155104041099548</v>
+        <v>0.005146645940840244</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>0.1701688468456268</v>
+        <v>0.0383448414504528</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>0.2149437814950943</v>
+        <v>0.08985855430364609</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>0.2361921817064285</v>
+        <v>0.1466403156518936</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>0.2396695911884308</v>
+        <v>0.1734267920255661</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>0.2213072627782822</v>
+        <v>0.1982992738485336</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0.1984246820211411</v>
+        <v>0.2303130924701691</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>0.138962984085083</v>
+        <v>0.2277674823999405</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>0.1394824534654617</v>
+        <v>0.2043268233537674</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>0.06705965101718903</v>
+        <v>0.1584577113389969</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>0.06695967167615891</v>
+        <v>0.1570719629526138</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>0.03984476998448372</v>
+        <v>0.107461117208004</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C84">
-        <v>0.01385465171188116</v>
+        <v>0.08068569004535675</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>0.0004262205911800265</v>
+        <v>0.05711100250482559</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.0004355370765551925</v>
+        <v>0.00456673838198185</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>0.0004344632907304913</v>
+        <v>0.0003916384885087609</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>0.0004317259590607136</v>
+        <v>0.0005081058479845524</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.0004319733416195959</v>
+        <v>0.0004684257437475026</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>0.0004275128012523055</v>
+        <v>0.0004684257437475026</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>0.0004253627266734838</v>
+        <v>0.0004637746314983815</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>0.0004392033733893186</v>
+        <v>0.0003524195635691285</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>0.0004382586048450321</v>
+        <v>0.0002431376778986305</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.00433787377551198</v>
+        <v>0.0004082670784555376</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>0.03231107071042061</v>
+        <v>0.0007866916130296886</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.0770585685968399</v>
+        <v>0.005124780815094709</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>0.1357671320438385</v>
+        <v>0.04384905472397804</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>0.1880118846893311</v>
+        <v>0.09739609807729721</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>0.214287668466568</v>
+        <v>0.1471830606460571</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>0.2125655114650726</v>
+        <v>0.1732567548751831</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>0.1960237175226212</v>
+        <v>0.196224644780159</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>0.157135546207428</v>
+        <v>0.2295774519443512</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>0.1274169236421585</v>
+        <v>0.2111143618822098</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>0.1397425085306168</v>
+        <v>0.1558632552623749</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>0.08341674506664276</v>
+        <v>0.159907728433609</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>0.07867149263620377</v>
+        <v>0.1398454308509827</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>0.05906679481267929</v>
+        <v>0.08698151260614395</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C108">
-        <v>0.01985200121998787</v>
+        <v>0.07803526520729065</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>0.0004393976996652782</v>
+        <v>0.05348394066095352</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.0004435696755535901</v>
+        <v>0.00325406133197248</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>0.0004432815476320684</v>
+        <v>0.0004593718040268868</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>0.0004466593381948769</v>
+        <v>0.0004912792937830091</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.0004604152927640826</v>
+        <v>0.0004915382596664131</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>0.0004606742586474866</v>
+        <v>0.0003895979607477784</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>0.0004683499573729932</v>
+        <v>0.0003895979607477784</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>0.0004663094296120107</v>
+        <v>0.0003947101649828255</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>0.0004663094296120107</v>
+        <v>0.0002306850074091926</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.006495105568319559</v>
+        <v>0.0003958145389333367</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>0.0516415573656559</v>
+        <v>0.0007866916130296886</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>0.1155748218297958</v>
+        <v>0.005178758408874273</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>0.171139657497406</v>
+        <v>0.04323018342256546</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>0.2148825228214264</v>
+        <v>0.09874685108661652</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>0.2411948144435883</v>
+        <v>0.1493806391954422</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>0.2484258562326431</v>
+        <v>0.1731025278568268</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>0.2462614625692368</v>
+        <v>0.1957372575998306</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>0.2438932657241821</v>
+        <v>0.2284157276153564</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>0.1980654150247574</v>
+        <v>0.2398501336574554</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>0.1537093222141266</v>
+        <v>0.2280464619398117</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>0.1313507556915283</v>
+        <v>0.203751415014267</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>0.08981816470623016</v>
+        <v>0.1522616446018219</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C131">
-        <v>0.06410754472017288</v>
+        <v>0.1335541903972626</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>0.01864873245358467</v>
+        <v>0.08772221952676773</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C133">
-        <v>0.0004444401129148901</v>
+        <v>0.05911160632967949</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>0.00044061808148399</v>
+        <v>0.00542551651597023</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>0.0004396566655486822</v>
+        <v>0.00068022555205971</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>0.0004582216206472367</v>
+        <v>0.000464473181637004</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.0004582216206472367</v>
+        <v>0.00046289581223391</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>0.0004582216206472367</v>
+        <v>0.00046289581223391</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>0.0004469589912332594</v>
+        <v>0.0004950507427565753</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>0.0004504714743234217</v>
+        <v>0.0002782428928185254</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0.0004501834628172219</v>
+        <v>0.000168107173522003</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>0.004348815884441137</v>
+        <v>0.0004354946431703866</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>0.04317576438188553</v>
+        <v>0.0007913430454209447</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>0.1025492548942566</v>
+        <v>0.005306473933160305</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>0.1651033610105515</v>
+        <v>0.04482432454824448</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>0.2143077552318573</v>
+        <v>0.09821873158216476</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>0.2352073937654495</v>
+        <v>0.1458747386932373</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>0.2447957396507263</v>
+        <v>0.1720224171876907</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>0.2438805401325226</v>
+        <v>0.1956774145364761</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>0.2400947660207748</v>
+        <v>0.2286118865013123</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>0.1975916475057602</v>
+        <v>0.2374098896980286</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>0.1531627476215363</v>
+        <v>0.2280562818050385</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C153">
-        <v>0.1338415145874023</v>
+        <v>0.203751415014267</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C154">
-        <v>0.08652334660291672</v>
+        <v>0.1521509736776352</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C155">
-        <v>0.06876406818628311</v>
+        <v>0.1330499947071075</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C156">
-        <v>0.02290823496878147</v>
+        <v>0.08830556273460388</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>0.0004085181280970573</v>
+        <v>0.05605954676866531</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B158">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>0.0004458689072635025</v>
+        <v>0.005095044616609812</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>0.0004472372529562563</v>
+        <v>0.000486354372696951</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C160">
-        <v>0.0005121479625813663</v>
+        <v>0.0004607017326634377</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.0004724680329672992</v>
+        <v>0.0004591244796756655</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>0.0004724680329672992</v>
+        <v>0.0004912792937830091</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0.000461734103737399</v>
+        <v>0.0003858265117742121</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>0.000461734103737399</v>
+        <v>0.0002747187973000109</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>0.000461734103737399</v>
+        <v>0.0002637685101944953</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>0.004361249972134829</v>
+        <v>0.000389726017601788</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>0.04531674832105637</v>
+        <v>0.0007806025678291917</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>0.102775938808918</v>
+        <v>0.003031600266695023</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>0.1652993857860565</v>
+        <v>0.03576727584004402</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>0.2136136144399643</v>
+        <v>0.08326549082994461</v>
       </c>
     </row>
   </sheetData>
